--- a/data/trans_orig/FREC_ALCOHOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Edad-trans_orig.xlsx
@@ -1114,12 +1114,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>328</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -1129,12 +1129,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>1,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -10704,12 +10704,12 @@
       </c>
       <c r="L7" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>1202</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -10719,12 +10719,12 @@
       </c>
       <c r="O7" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -11273,12 +11273,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>0</t>
+          <t>—</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>1281</t>
+          <t>—</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -11288,12 +11288,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>0,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">

--- a/data/trans_orig/FREC_ALCOHOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Edad-trans_orig.xlsx
@@ -545,7 +545,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en País Vasco</t>
+          <t>Consumo de bebidas alcohólicas en País Vasco (tasa de respuesta: 100,0%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -5340,7 +5340,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en Andalucia</t>
+          <t>Consumo de bebidas alcohólicas en Andalucia (tasa de respuesta: 99,76%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>
@@ -10135,7 +10135,7 @@
     <row r="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Consumo de bebidas alcohólicas en C.Valenciana</t>
+          <t>Consumo de bebidas alcohólicas en C.Valenciana (tasa de respuesta: 99,48%)</t>
         </is>
       </c>
       <c r="B1" s="2" t="n"/>

--- a/data/trans_orig/FREC_ALCOHOL-Edad-trans_orig.xlsx
+++ b/data/trans_orig/FREC_ALCOHOL-Edad-trans_orig.xlsx
@@ -735,32 +735,32 @@
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>3976</t>
+          <t>12836</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>2578</t>
+          <t>8134</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>5713</t>
+          <t>19381</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>15,59%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>10,11%</t>
+          <t>11,74%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>22,4%</t>
+          <t>27,98%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -770,32 +770,32 @@
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>5013</t>
+          <t>11598</t>
         </is>
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>3436</t>
+          <t>7362</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>7116</t>
+          <t>17925</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
         <is>
-          <t>21,25%</t>
+          <t>16,24%</t>
         </is>
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>14,56%</t>
+          <t>10,31%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>30,16%</t>
+          <t>25,1%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -805,32 +805,32 @@
       </c>
       <c r="R4" s="2" t="inlineStr">
         <is>
-          <t>8988</t>
+          <t>24433</t>
         </is>
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>6776</t>
+          <t>17854</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>11472</t>
+          <t>31909</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
         <is>
-          <t>18,31%</t>
+          <t>17,37%</t>
         </is>
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>13,8%</t>
+          <t>12,69%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>23,37%</t>
+          <t>22,68%</t>
         </is>
       </c>
     </row>
@@ -848,32 +848,32 @@
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>14883</t>
+          <t>38872</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>12689</t>
+          <t>31956</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>16884</t>
+          <t>45130</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>58,36%</t>
+          <t>56,12%</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>49,75%</t>
+          <t>46,13%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>66,21%</t>
+          <t>65,15%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -883,32 +883,32 @@
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>12690</t>
+          <t>38771</t>
         </is>
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>10573</t>
+          <t>30962</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>14748</t>
+          <t>46008</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
         <is>
-          <t>53,79%</t>
+          <t>54,28%</t>
         </is>
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>44,81%</t>
+          <t>43,35%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>62,51%</t>
+          <t>64,41%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -918,32 +918,32 @@
       </c>
       <c r="R5" s="2" t="inlineStr">
         <is>
-          <t>27573</t>
+          <t>77642</t>
         </is>
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>24660</t>
+          <t>67895</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>30534</t>
+          <t>86941</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
         <is>
-          <t>56,16%</t>
+          <t>55,19%</t>
         </is>
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>50,23%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>62,19%</t>
+          <t>61,79%</t>
         </is>
       </c>
     </row>
@@ -961,32 +961,32 @@
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>6340</t>
+          <t>16582</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>4820</t>
+          <t>12229</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>8297</t>
+          <t>21737</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>24,86%</t>
+          <t>23,94%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>18,9%</t>
+          <t>17,66%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,53%</t>
+          <t>31,38%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -996,32 +996,32 @@
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>5891</t>
+          <t>21057</t>
         </is>
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>4136</t>
+          <t>14551</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>7937</t>
+          <t>28910</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
         <is>
-          <t>24,97%</t>
+          <t>29,48%</t>
         </is>
       </c>
       <c r="O6" s="2" t="inlineStr">
         <is>
-          <t>17,53%</t>
+          <t>20,37%</t>
         </is>
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>33,64%</t>
+          <t>40,47%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -1031,32 +1031,32 @@
       </c>
       <c r="R6" s="2" t="inlineStr">
         <is>
-          <t>12230</t>
+          <t>37639</t>
         </is>
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>9874</t>
+          <t>29150</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>14895</t>
+          <t>46772</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>26,75%</t>
         </is>
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>20,11%</t>
+          <t>20,72%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>30,34%</t>
+          <t>33,24%</t>
         </is>
       </c>
     </row>
@@ -1074,7 +1074,7 @@
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>977</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
@@ -1084,12 +1084,12 @@
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>1075</t>
+          <t>4658</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>1,19%</t>
+          <t>1,41%</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
@@ -1099,7 +1099,7 @@
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>4,21%</t>
+          <t>6,72%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -1144,7 +1144,7 @@
       </c>
       <c r="R7" s="2" t="inlineStr">
         <is>
-          <t>303</t>
+          <t>977</t>
         </is>
       </c>
       <c r="S7" s="2" t="inlineStr">
@@ -1154,12 +1154,12 @@
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>1037</t>
+          <t>5469</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
         <is>
-          <t>0,62%</t>
+          <t>0,69%</t>
         </is>
       </c>
       <c r="V7" s="2" t="inlineStr">
@@ -1169,7 +1169,7 @@
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>2,11%</t>
+          <t>3,89%</t>
         </is>
       </c>
     </row>
@@ -1187,17 +1187,17 @@
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>25502</t>
+          <t>69267</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
@@ -1222,17 +1222,17 @@
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="L8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="M8" s="2" t="inlineStr">
         <is>
-          <t>23594</t>
+          <t>71426</t>
         </is>
       </c>
       <c r="N8" s="2" t="inlineStr">
@@ -1257,17 +1257,17 @@
       </c>
       <c r="R8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="S8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="T8" s="2" t="inlineStr">
         <is>
-          <t>49095</t>
+          <t>140692</t>
         </is>
       </c>
       <c r="U8" s="2" t="inlineStr">
@@ -1304,32 +1304,32 @@
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>2774</t>
+          <t>9065</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>1734</t>
+          <t>5066</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>4428</t>
+          <t>15603</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>9,61%</t>
+          <t>9,94%</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>6,01%</t>
+          <t>5,56%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>15,34%</t>
+          <t>17,11%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -1339,32 +1339,32 @@
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>4678</t>
+          <t>12889</t>
         </is>
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>3070</t>
+          <t>8378</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>6692</t>
+          <t>19459</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,14%</t>
         </is>
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>9,53%</t>
+          <t>9,19%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,77%</t>
+          <t>21,35%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -1374,32 +1374,32 @@
       </c>
       <c r="R9" s="2" t="inlineStr">
         <is>
-          <t>7452</t>
+          <t>21954</t>
         </is>
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>5460</t>
+          <t>15341</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>9656</t>
+          <t>30265</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
         <is>
-          <t>12,2%</t>
+          <t>12,04%</t>
         </is>
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>8,94%</t>
+          <t>8,41%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>15,81%</t>
+          <t>16,6%</t>
         </is>
       </c>
     </row>
@@ -1417,32 +1417,32 @@
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>15033</t>
+          <t>44924</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>12446</t>
+          <t>36388</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>17201</t>
+          <t>53524</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>52,07%</t>
+          <t>49,27%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>43,11%</t>
+          <t>39,91%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>59,58%</t>
+          <t>58,7%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -1452,32 +1452,32 @@
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>17264</t>
+          <t>47900</t>
         </is>
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>14753</t>
+          <t>40142</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>19940</t>
+          <t>56014</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
         <is>
-          <t>53,59%</t>
+          <t>52,55%</t>
         </is>
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>44,04%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>61,9%</t>
+          <t>61,45%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -1487,32 +1487,32 @@
       </c>
       <c r="R10" s="2" t="inlineStr">
         <is>
-          <t>32297</t>
+          <t>92824</t>
         </is>
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>28844</t>
+          <t>81475</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>35747</t>
+          <t>103879</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
         <is>
-          <t>52,87%</t>
+          <t>50,91%</t>
         </is>
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>47,22%</t>
+          <t>44,68%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>58,52%</t>
+          <t>56,97%</t>
         </is>
       </c>
     </row>
@@ -1530,32 +1530,32 @@
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>10457</t>
+          <t>33518</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>8360</t>
+          <t>25675</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>12927</t>
+          <t>42199</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>36,22%</t>
+          <t>36,76%</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>28,96%</t>
+          <t>28,16%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,78%</t>
+          <t>46,28%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -1565,32 +1565,32 @@
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>10167</t>
+          <t>29110</t>
         </is>
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>7802</t>
+          <t>21838</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>12790</t>
+          <t>37108</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
         <is>
-          <t>31,56%</t>
+          <t>31,93%</t>
         </is>
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>24,22%</t>
+          <t>23,96%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>39,7%</t>
+          <t>40,71%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -1600,32 +1600,32 @@
       </c>
       <c r="R11" s="2" t="inlineStr">
         <is>
-          <t>20624</t>
+          <t>62628</t>
         </is>
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>17290</t>
+          <t>52044</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>24010</t>
+          <t>74066</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
         <is>
-          <t>33,76%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>28,31%</t>
+          <t>28,54%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>39,31%</t>
+          <t>40,62%</t>
         </is>
       </c>
     </row>
@@ -1643,32 +1643,32 @@
       </c>
       <c r="D12" s="2" t="inlineStr">
         <is>
-          <t>604</t>
+          <t>3676</t>
         </is>
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>163</t>
+          <t>1130</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>1448</t>
+          <t>8489</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
         <is>
-          <t>2,09%</t>
+          <t>4,03%</t>
         </is>
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>0,56%</t>
+          <t>1,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>5,01%</t>
+          <t>9,31%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -1678,7 +1678,7 @@
       </c>
       <c r="K12" s="2" t="inlineStr">
         <is>
-          <t>107</t>
+          <t>1258</t>
         </is>
       </c>
       <c r="L12" s="2" t="inlineStr">
@@ -1688,12 +1688,12 @@
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>555</t>
+          <t>6023</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
         <is>
-          <t>0,33%</t>
+          <t>1,38%</t>
         </is>
       </c>
       <c r="O12" s="2" t="inlineStr">
@@ -1703,7 +1703,7 @@
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>1,72%</t>
+          <t>6,61%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -1713,32 +1713,32 @@
       </c>
       <c r="R12" s="2" t="inlineStr">
         <is>
-          <t>711</t>
+          <t>4935</t>
         </is>
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>248</t>
+          <t>1771</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>1595</t>
+          <t>10506</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
         <is>
-          <t>1,16%</t>
+          <t>2,71%</t>
         </is>
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>0,41%</t>
+          <t>0,97%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>2,61%</t>
+          <t>5,76%</t>
         </is>
       </c>
     </row>
@@ -1756,17 +1756,17 @@
       </c>
       <c r="D13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="E13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="F13" s="2" t="inlineStr">
         <is>
-          <t>28869</t>
+          <t>91184</t>
         </is>
       </c>
       <c r="G13" s="2" t="inlineStr">
@@ -1791,17 +1791,17 @@
       </c>
       <c r="K13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="L13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="M13" s="2" t="inlineStr">
         <is>
-          <t>32215</t>
+          <t>91156</t>
         </is>
       </c>
       <c r="N13" s="2" t="inlineStr">
@@ -1826,17 +1826,17 @@
       </c>
       <c r="R13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="S13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="T13" s="2" t="inlineStr">
         <is>
-          <t>61084</t>
+          <t>182341</t>
         </is>
       </c>
       <c r="U13" s="2" t="inlineStr">
@@ -1873,32 +1873,32 @@
       </c>
       <c r="D14" s="2" t="inlineStr">
         <is>
-          <t>4049</t>
+          <t>13198</t>
         </is>
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>2757</t>
+          <t>8962</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>5936</t>
+          <t>19718</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
         <is>
-          <t>8,6%</t>
+          <t>10,26%</t>
         </is>
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>5,86%</t>
+          <t>6,97%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>12,61%</t>
+          <t>15,33%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -1908,32 +1908,32 @@
       </c>
       <c r="K14" s="2" t="inlineStr">
         <is>
-          <t>7982</t>
+          <t>21842</t>
         </is>
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>6022</t>
+          <t>16368</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>10199</t>
+          <t>28987</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
         <is>
-          <t>15,56%</t>
+          <t>17,32%</t>
         </is>
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>11,74%</t>
+          <t>12,98%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>19,88%</t>
+          <t>22,99%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -1943,32 +1943,32 @@
       </c>
       <c r="R14" s="2" t="inlineStr">
         <is>
-          <t>12031</t>
+          <t>35041</t>
         </is>
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>9620</t>
+          <t>27527</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>15323</t>
+          <t>43869</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
         <is>
-          <t>12,23%</t>
+          <t>13,76%</t>
         </is>
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>9,78%</t>
+          <t>10,81%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>15,58%</t>
+          <t>17,22%</t>
         </is>
       </c>
     </row>
@@ -1986,32 +1986,32 @@
       </c>
       <c r="D15" s="2" t="inlineStr">
         <is>
-          <t>19982</t>
+          <t>48957</t>
         </is>
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>16930</t>
+          <t>40568</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>23135</t>
+          <t>57555</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>38,06%</t>
         </is>
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>35,98%</t>
+          <t>31,54%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>49,17%</t>
+          <t>44,74%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -2021,32 +2021,32 @@
       </c>
       <c r="K15" s="2" t="inlineStr">
         <is>
-          <t>26808</t>
+          <t>68765</t>
         </is>
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>23966</t>
+          <t>60856</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>29901</t>
+          <t>76550</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
         <is>
-          <t>52,24%</t>
+          <t>54,54%</t>
         </is>
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>46,7%</t>
+          <t>48,26%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>58,27%</t>
+          <t>60,71%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -2056,32 +2056,32 @@
       </c>
       <c r="R15" s="2" t="inlineStr">
         <is>
-          <t>46790</t>
+          <t>117722</t>
         </is>
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>42484</t>
+          <t>105630</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>51297</t>
+          <t>128837</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
         <is>
-          <t>47,57%</t>
+          <t>46,21%</t>
         </is>
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>43,19%</t>
+          <t>41,47%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>52,15%</t>
+          <t>50,58%</t>
         </is>
       </c>
     </row>
@@ -2099,32 +2099,32 @@
       </c>
       <c r="D16" s="2" t="inlineStr">
         <is>
-          <t>19986</t>
+          <t>58310</t>
         </is>
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>17423</t>
+          <t>48792</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>23054</t>
+          <t>67374</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
         <is>
-          <t>42,48%</t>
+          <t>45,33%</t>
         </is>
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>37,03%</t>
+          <t>37,93%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>49,0%</t>
+          <t>52,38%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -2134,32 +2134,32 @@
       </c>
       <c r="K16" s="2" t="inlineStr">
         <is>
-          <t>16021</t>
+          <t>34566</t>
         </is>
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>13189</t>
+          <t>27842</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>19007</t>
+          <t>42123</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
         <is>
-          <t>31,22%</t>
+          <t>27,41%</t>
         </is>
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>25,7%</t>
+          <t>22,08%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>33,41%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -2169,32 +2169,32 @@
       </c>
       <c r="R16" s="2" t="inlineStr">
         <is>
-          <t>36007</t>
+          <t>92876</t>
         </is>
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>31441</t>
+          <t>80890</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>40277</t>
+          <t>104547</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
         <is>
-          <t>36,6%</t>
+          <t>36,46%</t>
         </is>
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>31,96%</t>
+          <t>31,76%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>40,94%</t>
+          <t>41,04%</t>
         </is>
       </c>
     </row>
@@ -2212,32 +2212,32 @@
       </c>
       <c r="D17" s="2" t="inlineStr">
         <is>
-          <t>3036</t>
+          <t>8170</t>
         </is>
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>1873</t>
+          <t>4486</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>4867</t>
+          <t>13449</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
         <is>
-          <t>6,45%</t>
+          <t>6,35%</t>
         </is>
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>3,98%</t>
+          <t>3,49%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>10,34%</t>
+          <t>10,46%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -2247,32 +2247,32 @@
       </c>
       <c r="K17" s="2" t="inlineStr">
         <is>
-          <t>505</t>
+          <t>918</t>
         </is>
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>124</t>
+          <t>7</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>1401</t>
+          <t>3691</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
         <is>
-          <t>0,98%</t>
+          <t>0,73%</t>
         </is>
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>0,24%</t>
+          <t>0,01%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>2,73%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -2282,32 +2282,32 @@
       </c>
       <c r="R17" s="2" t="inlineStr">
         <is>
-          <t>3541</t>
+          <t>9088</t>
         </is>
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>2118</t>
+          <t>5600</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>5454</t>
+          <t>14853</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
         <is>
-          <t>3,6%</t>
+          <t>3,57%</t>
         </is>
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>2,15%</t>
+          <t>2,2%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>5,54%</t>
+          <t>5,83%</t>
         </is>
       </c>
     </row>
@@ -2325,17 +2325,17 @@
       </c>
       <c r="D18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="E18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="F18" s="2" t="inlineStr">
         <is>
-          <t>47053</t>
+          <t>128636</t>
         </is>
       </c>
       <c r="G18" s="2" t="inlineStr">
@@ -2360,17 +2360,17 @@
       </c>
       <c r="K18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="L18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="M18" s="2" t="inlineStr">
         <is>
-          <t>51316</t>
+          <t>126091</t>
         </is>
       </c>
       <c r="N18" s="2" t="inlineStr">
@@ -2395,17 +2395,17 @@
       </c>
       <c r="R18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="S18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="T18" s="2" t="inlineStr">
         <is>
-          <t>98369</t>
+          <t>254727</t>
         </is>
       </c>
       <c r="U18" s="2" t="inlineStr">
@@ -2442,32 +2442,32 @@
       </c>
       <c r="D19" s="2" t="inlineStr">
         <is>
-          <t>7515</t>
+          <t>16769</t>
         </is>
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>5322</t>
+          <t>11733</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>9962</t>
+          <t>23502</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
         <is>
-          <t>10,44%</t>
+          <t>11,07%</t>
         </is>
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>7,39%</t>
+          <t>7,75%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>13,84%</t>
+          <t>15,52%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -2477,32 +2477,32 @@
       </c>
       <c r="K19" s="2" t="inlineStr">
         <is>
-          <t>12646</t>
+          <t>27336</t>
         </is>
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>10202</t>
+          <t>20911</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>15664</t>
+          <t>34656</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
         <is>
-          <t>17,19%</t>
+          <t>18,12%</t>
         </is>
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>13,87%</t>
+          <t>13,86%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>21,29%</t>
+          <t>22,97%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -2512,32 +2512,32 @@
       </c>
       <c r="R19" s="2" t="inlineStr">
         <is>
-          <t>20161</t>
+          <t>44105</t>
         </is>
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>16735</t>
+          <t>35864</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>24234</t>
+          <t>53820</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
         <is>
-          <t>13,85%</t>
+          <t>14,59%</t>
         </is>
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>11,5%</t>
+          <t>11,87%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>16,65%</t>
+          <t>17,81%</t>
         </is>
       </c>
     </row>
@@ -2555,32 +2555,32 @@
       </c>
       <c r="D20" s="2" t="inlineStr">
         <is>
-          <t>27161</t>
+          <t>56361</t>
         </is>
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>23645</t>
+          <t>47957</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>30834</t>
+          <t>65888</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
         <is>
-          <t>37,72%</t>
+          <t>37,22%</t>
         </is>
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>32,84%</t>
+          <t>31,67%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>42,83%</t>
+          <t>43,51%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -2590,32 +2590,32 @@
       </c>
       <c r="K20" s="2" t="inlineStr">
         <is>
-          <t>32544</t>
+          <t>64326</t>
         </is>
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>28535</t>
+          <t>55817</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>36385</t>
+          <t>72589</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
         <is>
-          <t>44,23%</t>
+          <t>42,64%</t>
         </is>
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>38,78%</t>
+          <t>37,0%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>49,45%</t>
+          <t>48,12%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -2625,32 +2625,32 @@
       </c>
       <c r="R20" s="2" t="inlineStr">
         <is>
-          <t>59705</t>
+          <t>120687</t>
         </is>
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>54423</t>
+          <t>107946</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>64820</t>
+          <t>132616</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
         <is>
-          <t>41,01%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>37,39%</t>
+          <t>35,71%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>44,53%</t>
+          <t>43,87%</t>
         </is>
       </c>
     </row>
@@ -2668,32 +2668,32 @@
       </c>
       <c r="D21" s="2" t="inlineStr">
         <is>
-          <t>32650</t>
+          <t>69722</t>
         </is>
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>29020</t>
+          <t>61002</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>36464</t>
+          <t>78919</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
         <is>
-          <t>45,35%</t>
+          <t>46,04%</t>
         </is>
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>40,31%</t>
+          <t>40,29%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>50,64%</t>
+          <t>52,12%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -2703,32 +2703,32 @@
       </c>
       <c r="K21" s="2" t="inlineStr">
         <is>
-          <t>26362</t>
+          <t>54873</t>
         </is>
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>22914</t>
+          <t>47209</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>30169</t>
+          <t>63516</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
         <is>
-          <t>35,83%</t>
+          <t>36,38%</t>
         </is>
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>31,14%</t>
+          <t>31,3%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>41,0%</t>
+          <t>42,11%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -2738,32 +2738,32 @@
       </c>
       <c r="R21" s="2" t="inlineStr">
         <is>
-          <t>59011</t>
+          <t>124595</t>
         </is>
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>54194</t>
+          <t>112395</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>64754</t>
+          <t>135916</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
         <is>
-          <t>40,54%</t>
+          <t>41,22%</t>
         </is>
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>37,23%</t>
+          <t>37,18%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>44,48%</t>
+          <t>44,97%</t>
         </is>
       </c>
     </row>
@@ -2781,32 +2781,32 @@
       </c>
       <c r="D22" s="2" t="inlineStr">
         <is>
-          <t>4673</t>
+          <t>8572</t>
         </is>
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>3058</t>
+          <t>5324</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>6765</t>
+          <t>13268</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
         <is>
-          <t>6,49%</t>
+          <t>5,66%</t>
         </is>
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>4,25%</t>
+          <t>3,52%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>9,4%</t>
+          <t>8,76%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -2816,32 +2816,32 @@
       </c>
       <c r="K22" s="2" t="inlineStr">
         <is>
-          <t>2025</t>
+          <t>4310</t>
         </is>
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>976</t>
+          <t>2071</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>3590</t>
+          <t>7852</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
         <is>
-          <t>2,75%</t>
+          <t>2,86%</t>
         </is>
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>1,33%</t>
+          <t>1,37%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>4,88%</t>
+          <t>5,21%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -2851,32 +2851,32 @@
       </c>
       <c r="R22" s="2" t="inlineStr">
         <is>
-          <t>6698</t>
+          <t>12882</t>
         </is>
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>4668</t>
+          <t>8865</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>9226</t>
+          <t>18887</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
         <is>
-          <t>4,6%</t>
+          <t>4,26%</t>
         </is>
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>3,21%</t>
+          <t>2,93%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,34%</t>
+          <t>6,25%</t>
         </is>
       </c>
     </row>
@@ -2894,17 +2894,17 @@
       </c>
       <c r="D23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="E23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="F23" s="2" t="inlineStr">
         <is>
-          <t>71999</t>
+          <t>151424</t>
         </is>
       </c>
       <c r="G23" s="2" t="inlineStr">
@@ -2929,17 +2929,17 @@
       </c>
       <c r="K23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="L23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="M23" s="2" t="inlineStr">
         <is>
-          <t>73576</t>
+          <t>150845</t>
         </is>
       </c>
       <c r="N23" s="2" t="inlineStr">
@@ -2964,17 +2964,17 @@
       </c>
       <c r="R23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="S23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="T23" s="2" t="inlineStr">
         <is>
-          <t>145575</t>
+          <t>302269</t>
         </is>
       </c>
       <c r="U23" s="2" t="inlineStr">
@@ -3011,17 +3011,17 @@
       </c>
       <c r="D24" s="2" t="inlineStr">
         <is>
-          <t>4282</t>
+          <t>8202</t>
         </is>
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>2772</t>
+          <t>4797</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>6412</t>
+          <t>13051</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -3031,12 +3031,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>4,09%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>9,46%</t>
+          <t>10,05%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -3046,32 +3046,32 @@
       </c>
       <c r="K24" s="2" t="inlineStr">
         <is>
-          <t>18364</t>
+          <t>29547</t>
         </is>
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>15125</t>
+          <t>24729</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>21833</t>
+          <t>38030</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
         <is>
-          <t>22,54%</t>
+          <t>21,01%</t>
         </is>
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>18,56%</t>
+          <t>17,59%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>26,8%</t>
+          <t>27,05%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -3081,32 +3081,32 @@
       </c>
       <c r="R24" s="2" t="inlineStr">
         <is>
-          <t>22646</t>
+          <t>37749</t>
         </is>
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>19286</t>
+          <t>30812</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>27586</t>
+          <t>46095</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
         <is>
-          <t>15,17%</t>
+          <t>13,96%</t>
         </is>
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>12,92%</t>
+          <t>11,39%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>18,48%</t>
+          <t>17,04%</t>
         </is>
       </c>
     </row>
@@ -3124,32 +3124,32 @@
       </c>
       <c r="D25" s="2" t="inlineStr">
         <is>
-          <t>24957</t>
+          <t>45644</t>
         </is>
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>21508</t>
+          <t>38387</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>28656</t>
+          <t>53428</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
         <is>
-          <t>36,81%</t>
+          <t>35,15%</t>
         </is>
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>31,72%</t>
+          <t>29,56%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>42,27%</t>
+          <t>41,14%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -3159,32 +3159,32 @@
       </c>
       <c r="K25" s="2" t="inlineStr">
         <is>
-          <t>32530</t>
+          <t>55375</t>
         </is>
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>28844</t>
+          <t>48496</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>36532</t>
+          <t>63079</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
         <is>
-          <t>39,92%</t>
+          <t>39,38%</t>
         </is>
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>35,4%</t>
+          <t>34,49%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>44,84%</t>
+          <t>44,86%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -3194,32 +3194,32 @@
       </c>
       <c r="R25" s="2" t="inlineStr">
         <is>
-          <t>57487</t>
+          <t>101019</t>
         </is>
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>52637</t>
+          <t>91321</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>62767</t>
+          <t>111722</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
         <is>
-          <t>38,51%</t>
+          <t>37,35%</t>
         </is>
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>35,26%</t>
+          <t>33,77%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>42,05%</t>
+          <t>41,31%</t>
         </is>
       </c>
     </row>
@@ -3237,32 +3237,32 @@
       </c>
       <c r="D26" s="2" t="inlineStr">
         <is>
-          <t>25405</t>
+          <t>51851</t>
         </is>
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>21854</t>
+          <t>44102</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>28892</t>
+          <t>60431</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
         <is>
-          <t>37,47%</t>
+          <t>39,93%</t>
         </is>
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>32,23%</t>
+          <t>33,96%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>42,62%</t>
+          <t>46,54%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -3272,32 +3272,32 @@
       </c>
       <c r="K26" s="2" t="inlineStr">
         <is>
-          <t>25740</t>
+          <t>46342</t>
         </is>
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>22040</t>
+          <t>39693</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>29886</t>
+          <t>54117</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
         <is>
-          <t>31,59%</t>
+          <t>32,96%</t>
         </is>
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>27,05%</t>
+          <t>28,23%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>36,68%</t>
+          <t>38,49%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -3307,32 +3307,32 @@
       </c>
       <c r="R26" s="2" t="inlineStr">
         <is>
-          <t>51145</t>
+          <t>98193</t>
         </is>
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>45848</t>
+          <t>87664</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>56290</t>
+          <t>108711</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
         <is>
-          <t>34,26%</t>
+          <t>36,31%</t>
         </is>
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>30,71%</t>
+          <t>32,41%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>37,71%</t>
+          <t>40,19%</t>
         </is>
       </c>
     </row>
@@ -3350,32 +3350,32 @@
       </c>
       <c r="D27" s="2" t="inlineStr">
         <is>
-          <t>13153</t>
+          <t>24159</t>
         </is>
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>10470</t>
+          <t>18461</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>16404</t>
+          <t>30823</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
         <is>
-          <t>19,4%</t>
+          <t>18,6%</t>
         </is>
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>15,44%</t>
+          <t>14,22%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>24,2%</t>
+          <t>23,74%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -3385,32 +3385,32 @@
       </c>
       <c r="K27" s="2" t="inlineStr">
         <is>
-          <t>4845</t>
+          <t>9342</t>
         </is>
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>3218</t>
+          <t>6064</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>7087</t>
+          <t>13516</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
         <is>
-          <t>5,95%</t>
+          <t>6,64%</t>
         </is>
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>3,95%</t>
+          <t>4,31%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>9,61%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -3420,32 +3420,32 @@
       </c>
       <c r="R27" s="2" t="inlineStr">
         <is>
-          <t>17998</t>
+          <t>33501</t>
         </is>
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>14859</t>
+          <t>26732</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>22122</t>
+          <t>41223</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
         <is>
-          <t>12,06%</t>
+          <t>12,39%</t>
         </is>
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>9,95%</t>
+          <t>9,88%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>14,82%</t>
+          <t>15,24%</t>
         </is>
       </c>
     </row>
@@ -3463,17 +3463,17 @@
       </c>
       <c r="D28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="E28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="F28" s="2" t="inlineStr">
         <is>
-          <t>67797</t>
+          <t>129856</t>
         </is>
       </c>
       <c r="G28" s="2" t="inlineStr">
@@ -3498,17 +3498,17 @@
       </c>
       <c r="K28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="L28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="M28" s="2" t="inlineStr">
         <is>
-          <t>81479</t>
+          <t>140606</t>
         </is>
       </c>
       <c r="N28" s="2" t="inlineStr">
@@ -3533,17 +3533,17 @@
       </c>
       <c r="R28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="S28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="T28" s="2" t="inlineStr">
         <is>
-          <t>149276</t>
+          <t>270461</t>
         </is>
       </c>
       <c r="U28" s="2" t="inlineStr">
@@ -3580,32 +3580,32 @@
       </c>
       <c r="D29" s="2" t="inlineStr">
         <is>
-          <t>4386</t>
+          <t>5993</t>
         </is>
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>2854</t>
+          <t>3890</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>6454</t>
+          <t>9306</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
         <is>
-          <t>7,24%</t>
+          <t>6,23%</t>
         </is>
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>4,71%</t>
+          <t>4,04%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>10,65%</t>
+          <t>9,68%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -3615,32 +3615,32 @@
       </c>
       <c r="K29" s="2" t="inlineStr">
         <is>
-          <t>23620</t>
+          <t>38498</t>
         </is>
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>20459</t>
+          <t>33343</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>27287</t>
+          <t>44620</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
         <is>
-          <t>34,38%</t>
+          <t>34,45%</t>
         </is>
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>29,78%</t>
+          <t>29,83%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>39,72%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -3650,32 +3650,32 @@
       </c>
       <c r="R29" s="2" t="inlineStr">
         <is>
-          <t>28006</t>
+          <t>44491</t>
         </is>
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>23909</t>
+          <t>37797</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>32205</t>
+          <t>52266</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>21,4%</t>
         </is>
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>18,49%</t>
+          <t>18,18%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>24,91%</t>
+          <t>25,14%</t>
         </is>
       </c>
     </row>
@@ -3693,32 +3693,32 @@
       </c>
       <c r="D30" s="2" t="inlineStr">
         <is>
-          <t>17191</t>
+          <t>26086</t>
         </is>
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>14106</t>
+          <t>21768</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>20122</t>
+          <t>31468</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
         <is>
-          <t>28,38%</t>
+          <t>27,12%</t>
         </is>
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>23,28%</t>
+          <t>22,63%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>33,21%</t>
+          <t>32,72%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -3728,32 +3728,32 @@
       </c>
       <c r="K30" s="2" t="inlineStr">
         <is>
-          <t>24272</t>
+          <t>40022</t>
         </is>
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>20860</t>
+          <t>34386</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>27638</t>
+          <t>46762</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
         <is>
-          <t>35,33%</t>
+          <t>35,81%</t>
         </is>
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>30,36%</t>
+          <t>30,77%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>40,23%</t>
+          <t>41,84%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -3763,32 +3763,32 @@
       </c>
       <c r="R30" s="2" t="inlineStr">
         <is>
-          <t>41463</t>
+          <t>66109</t>
         </is>
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>37247</t>
+          <t>58383</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>46253</t>
+          <t>73966</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
         <is>
-          <t>32,07%</t>
+          <t>31,79%</t>
         </is>
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>28,81%</t>
+          <t>28,08%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>35,78%</t>
+          <t>35,57%</t>
         </is>
       </c>
     </row>
@@ -3806,32 +3806,32 @@
       </c>
       <c r="D31" s="2" t="inlineStr">
         <is>
-          <t>18647</t>
+          <t>31533</t>
         </is>
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>15741</t>
+          <t>26288</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>22578</t>
+          <t>37308</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
         <is>
-          <t>30,78%</t>
+          <t>32,79%</t>
         </is>
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>25,98%</t>
+          <t>27,33%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>37,27%</t>
+          <t>38,79%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -3841,32 +3841,32 @@
       </c>
       <c r="K31" s="2" t="inlineStr">
         <is>
-          <t>13160</t>
+          <t>23023</t>
         </is>
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>10638</t>
+          <t>18660</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>15897</t>
+          <t>28736</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
         <is>
-          <t>19,16%</t>
+          <t>20,6%</t>
         </is>
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>15,49%</t>
+          <t>16,7%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>23,14%</t>
+          <t>25,71%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -3876,32 +3876,32 @@
       </c>
       <c r="R31" s="2" t="inlineStr">
         <is>
-          <t>31806</t>
+          <t>54556</t>
         </is>
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>27706</t>
+          <t>47042</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>36365</t>
+          <t>62137</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
         <is>
-          <t>24,6%</t>
+          <t>26,24%</t>
         </is>
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>21,43%</t>
+          <t>22,62%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>28,13%</t>
+          <t>29,88%</t>
         </is>
       </c>
     </row>
@@ -3919,32 +3919,32 @@
       </c>
       <c r="D32" s="2" t="inlineStr">
         <is>
-          <t>20362</t>
+          <t>32559</t>
         </is>
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>17392</t>
+          <t>27259</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>23538</t>
+          <t>38300</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
         <is>
-          <t>33,61%</t>
+          <t>33,85%</t>
         </is>
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>28,71%</t>
+          <t>28,34%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>38,85%</t>
+          <t>39,82%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -3954,32 +3954,32 @@
       </c>
       <c r="K32" s="2" t="inlineStr">
         <is>
-          <t>7646</t>
+          <t>10218</t>
         </is>
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>5419</t>
+          <t>7135</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>10518</t>
+          <t>14388</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
         <is>
-          <t>11,13%</t>
+          <t>9,14%</t>
         </is>
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>7,89%</t>
+          <t>6,38%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>15,31%</t>
+          <t>12,87%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -3989,32 +3989,32 @@
       </c>
       <c r="R32" s="2" t="inlineStr">
         <is>
-          <t>28008</t>
+          <t>42776</t>
         </is>
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>24325</t>
+          <t>36156</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>32485</t>
+          <t>51018</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
         <is>
-          <t>21,66%</t>
+          <t>20,57%</t>
         </is>
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>18,82%</t>
+          <t>17,39%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>25,13%</t>
+          <t>24,54%</t>
         </is>
       </c>
     </row>
@@ -4032,17 +4032,17 @@
       </c>
       <c r="D33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="E33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="F33" s="2" t="inlineStr">
         <is>
-          <t>60586</t>
+          <t>96171</t>
         </is>
       </c>
       <c r="G33" s="2" t="inlineStr">
@@ -4067,17 +4067,17 @@
       </c>
       <c r="K33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="L33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="M33" s="2" t="inlineStr">
         <is>
-          <t>68697</t>
+          <t>111761</t>
         </is>
       </c>
       <c r="N33" s="2" t="inlineStr">
@@ -4102,17 +4102,17 @@
       </c>
       <c r="R33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="S33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="T33" s="2" t="inlineStr">
         <is>
-          <t>129283</t>
+          <t>207932</t>
         </is>
       </c>
       <c r="U33" s="2" t="inlineStr">
@@ -4149,32 +4149,32 @@
       </c>
       <c r="D34" s="2" t="inlineStr">
         <is>
-          <t>3032</t>
+          <t>6384</t>
         </is>
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>1756</t>
+          <t>3465</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>4944</t>
+          <t>10310</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
         <is>
-          <t>6,0%</t>
+          <t>8,0%</t>
         </is>
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>3,48%</t>
+          <t>4,34%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>9,79%</t>
+          <t>12,92%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -4184,32 +4184,32 @@
       </c>
       <c r="K34" s="2" t="inlineStr">
         <is>
-          <t>41495</t>
+          <t>63498</t>
         </is>
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>37582</t>
+          <t>56446</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>45679</t>
+          <t>70146</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
         <is>
-          <t>51,63%</t>
+          <t>49,63%</t>
         </is>
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>46,76%</t>
+          <t>44,12%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>56,84%</t>
+          <t>54,83%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -4219,32 +4219,32 @@
       </c>
       <c r="R34" s="2" t="inlineStr">
         <is>
-          <t>44527</t>
+          <t>69881</t>
         </is>
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>39551</t>
+          <t>61786</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>49106</t>
+          <t>78633</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
         <is>
-          <t>34,02%</t>
+          <t>33,64%</t>
         </is>
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>30,22%</t>
+          <t>29,74%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>37,52%</t>
+          <t>37,85%</t>
         </is>
       </c>
     </row>
@@ -4262,32 +4262,32 @@
       </c>
       <c r="D35" s="2" t="inlineStr">
         <is>
-          <t>21644</t>
+          <t>32735</t>
         </is>
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>18542</t>
+          <t>27393</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>24784</t>
+          <t>38023</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
         <is>
-          <t>42,85%</t>
+          <t>41,02%</t>
         </is>
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>36,71%</t>
+          <t>34,32%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>49,06%</t>
+          <t>47,64%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -4297,32 +4297,32 @@
       </c>
       <c r="K35" s="2" t="inlineStr">
         <is>
-          <t>24675</t>
+          <t>45196</t>
         </is>
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>20897</t>
+          <t>38980</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>28331</t>
+          <t>52721</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
         <is>
-          <t>30,7%</t>
+          <t>35,33%</t>
         </is>
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>26,0%</t>
+          <t>30,47%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>35,25%</t>
+          <t>41,21%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -4332,32 +4332,32 @@
       </c>
       <c r="R35" s="2" t="inlineStr">
         <is>
-          <t>46319</t>
+          <t>77931</t>
         </is>
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>41715</t>
+          <t>69730</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>51106</t>
+          <t>87095</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>37,51%</t>
         </is>
       </c>
       <c r="V35" s="2" t="inlineStr">
         <is>
-          <t>31,87%</t>
+          <t>33,57%</t>
         </is>
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>39,05%</t>
+          <t>41,93%</t>
         </is>
       </c>
     </row>
@@ -4375,32 +4375,32 @@
       </c>
       <c r="D36" s="2" t="inlineStr">
         <is>
-          <t>9058</t>
+          <t>15092</t>
         </is>
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>7080</t>
+          <t>11567</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>11801</t>
+          <t>19823</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
         <is>
-          <t>17,93%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>14,02%</t>
+          <t>14,49%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>23,36%</t>
+          <t>24,84%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -4410,32 +4410,32 @@
       </c>
       <c r="K36" s="2" t="inlineStr">
         <is>
-          <t>5034</t>
+          <t>7779</t>
         </is>
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>3455</t>
+          <t>5032</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>6876</t>
+          <t>11723</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>6,08%</t>
         </is>
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>4,3%</t>
+          <t>3,93%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>8,56%</t>
+          <t>9,16%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -4445,32 +4445,32 @@
       </c>
       <c r="R36" s="2" t="inlineStr">
         <is>
-          <t>14092</t>
+          <t>22871</t>
         </is>
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>11271</t>
+          <t>17717</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>17311</t>
+          <t>28150</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
         <is>
-          <t>10,77%</t>
+          <t>11,01%</t>
         </is>
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>8,61%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>13,23%</t>
+          <t>13,55%</t>
         </is>
       </c>
     </row>
@@ -4488,32 +4488,32 @@
       </c>
       <c r="D37" s="2" t="inlineStr">
         <is>
-          <t>16780</t>
+          <t>25594</t>
         </is>
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>13837</t>
+          <t>20704</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>19787</t>
+          <t>30700</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
         <is>
-          <t>33,22%</t>
+          <t>32,07%</t>
         </is>
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>27,39%</t>
+          <t>25,94%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>39,17%</t>
+          <t>38,47%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -4523,32 +4523,32 @@
       </c>
       <c r="K37" s="2" t="inlineStr">
         <is>
-          <t>9166</t>
+          <t>11460</t>
         </is>
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>6953</t>
+          <t>8389</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>12005</t>
+          <t>15313</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
         <is>
-          <t>11,41%</t>
+          <t>8,96%</t>
         </is>
       </c>
       <c r="O37" s="2" t="inlineStr">
         <is>
-          <t>8,65%</t>
+          <t>6,56%</t>
         </is>
       </c>
       <c r="P37" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>11,97%</t>
         </is>
       </c>
       <c r="Q37" s="2" t="inlineStr">
@@ -4558,32 +4558,32 @@
       </c>
       <c r="R37" s="2" t="inlineStr">
         <is>
-          <t>25947</t>
+          <t>37054</t>
         </is>
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>22256</t>
+          <t>31204</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>30089</t>
+          <t>43980</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
         <is>
-          <t>19,82%</t>
+          <t>17,84%</t>
         </is>
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>17,0%</t>
+          <t>15,02%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>22,99%</t>
+          <t>21,17%</t>
         </is>
       </c>
     </row>
@@ -4601,17 +4601,17 @@
       </c>
       <c r="D38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="E38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="F38" s="2" t="inlineStr">
         <is>
-          <t>50514</t>
+          <t>79805</t>
         </is>
       </c>
       <c r="G38" s="2" t="inlineStr">
@@ -4636,17 +4636,17 @@
       </c>
       <c r="K38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="L38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="M38" s="2" t="inlineStr">
         <is>
-          <t>80370</t>
+          <t>127933</t>
         </is>
       </c>
       <c r="N38" s="2" t="inlineStr">
@@ -4671,17 +4671,17 @@
       </c>
       <c r="R38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="S38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="T38" s="2" t="inlineStr">
         <is>
-          <t>130884</t>
+          <t>207738</t>
         </is>
       </c>
       <c r="U38" s="2" t="inlineStr">
@@ -4718,32 +4718,32 @@
       </c>
       <c r="D39" s="2" t="inlineStr">
         <is>
-          <t>30014</t>
+          <t>72448</t>
         </is>
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>25558</t>
+          <t>61638</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>35082</t>
+          <t>86507</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
         <is>
-          <t>8,52%</t>
+          <t>9,71%</t>
         </is>
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>7,25%</t>
+          <t>8,26%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>9,96%</t>
+          <t>11,59%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -4753,32 +4753,32 @@
       </c>
       <c r="K39" s="2" t="inlineStr">
         <is>
-          <t>113797</t>
+          <t>205207</t>
         </is>
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>106106</t>
+          <t>188804</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>122758</t>
+          <t>222005</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
         <is>
-          <t>27,67%</t>
+          <t>25,03%</t>
         </is>
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>25,8%</t>
+          <t>23,03%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>27,08%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -4788,32 +4788,32 @@
       </c>
       <c r="R39" s="2" t="inlineStr">
         <is>
-          <t>143811</t>
+          <t>277655</t>
         </is>
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>134307</t>
+          <t>257231</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>153310</t>
+          <t>300533</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
         <is>
-          <t>18,83%</t>
+          <t>17,73%</t>
         </is>
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>17,59%</t>
+          <t>16,42%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>20,08%</t>
+          <t>19,19%</t>
         </is>
       </c>
     </row>
@@ -4831,32 +4831,32 @@
       </c>
       <c r="D40" s="2" t="inlineStr">
         <is>
-          <t>140852</t>
+          <t>293580</t>
         </is>
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>133425</t>
+          <t>275648</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>149724</t>
+          <t>313363</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
         <is>
-          <t>39,98%</t>
+          <t>39,34%</t>
         </is>
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>37,87%</t>
+          <t>36,93%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>42,5%</t>
+          <t>41,99%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -4866,32 +4866,32 @@
       </c>
       <c r="K40" s="2" t="inlineStr">
         <is>
-          <t>170783</t>
+          <t>360355</t>
         </is>
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>162030</t>
+          <t>341100</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>179672</t>
+          <t>381469</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
         <is>
-          <t>41,53%</t>
+          <t>43,96%</t>
         </is>
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>39,4%</t>
+          <t>41,61%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>43,69%</t>
+          <t>46,53%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -4901,32 +4901,32 @@
       </c>
       <c r="R40" s="2" t="inlineStr">
         <is>
-          <t>311634</t>
+          <t>653935</t>
         </is>
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>300107</t>
+          <t>625257</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>324315</t>
+          <t>682235</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
         <is>
-          <t>40,81%</t>
+          <t>41,75%</t>
         </is>
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>39,3%</t>
+          <t>39,92%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>42,47%</t>
+          <t>43,56%</t>
         </is>
       </c>
     </row>
@@ -4944,32 +4944,32 @@
       </c>
       <c r="D41" s="2" t="inlineStr">
         <is>
-          <t>122542</t>
+          <t>276608</t>
         </is>
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>114522</t>
+          <t>256373</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>130516</t>
+          <t>295455</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
         <is>
-          <t>34,78%</t>
+          <t>37,06%</t>
         </is>
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>32,51%</t>
+          <t>34,35%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>37,04%</t>
+          <t>39,59%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -4979,32 +4979,32 @@
       </c>
       <c r="K41" s="2" t="inlineStr">
         <is>
-          <t>102374</t>
+          <t>216751</t>
         </is>
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>93897</t>
+          <t>199981</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>109728</t>
+          <t>237166</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
         <is>
-          <t>24,89%</t>
+          <t>26,44%</t>
         </is>
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>22,83%</t>
+          <t>24,39%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>26,68%</t>
+          <t>28,93%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -5014,32 +5014,32 @@
       </c>
       <c r="R41" s="2" t="inlineStr">
         <is>
-          <t>224916</t>
+          <t>493359</t>
         </is>
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>214125</t>
+          <t>467940</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>235480</t>
+          <t>520428</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
         <is>
-          <t>29,46%</t>
+          <t>31,5%</t>
         </is>
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>28,04%</t>
+          <t>29,88%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>30,84%</t>
+          <t>33,23%</t>
         </is>
       </c>
     </row>
@@ -5057,32 +5057,32 @@
       </c>
       <c r="D42" s="2" t="inlineStr">
         <is>
-          <t>58913</t>
+          <t>103707</t>
         </is>
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>52487</t>
+          <t>91445</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>65167</t>
+          <t>116368</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
         <is>
-          <t>16,72%</t>
+          <t>13,9%</t>
         </is>
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
-          <t>14,9%</t>
+          <t>12,25%</t>
         </is>
       </c>
       <c r="I42" s="2" t="inlineStr">
         <is>
-          <t>18,5%</t>
+          <t>15,59%</t>
         </is>
       </c>
       <c r="J42" s="2" t="inlineStr">
@@ -5092,32 +5092,32 @@
       </c>
       <c r="K42" s="2" t="inlineStr">
         <is>
-          <t>24292</t>
+          <t>37506</t>
         </is>
       </c>
       <c r="L42" s="2" t="inlineStr">
         <is>
-          <t>20029</t>
+          <t>30286</t>
         </is>
       </c>
       <c r="M42" s="2" t="inlineStr">
         <is>
-          <t>28760</t>
+          <t>45669</t>
         </is>
       </c>
       <c r="N42" s="2" t="inlineStr">
         <is>
-          <t>5,91%</t>
+          <t>4,57%</t>
         </is>
       </c>
       <c r="O42" s="2" t="inlineStr">
         <is>
-          <t>4,87%</t>
+          <t>3,69%</t>
         </is>
       </c>
       <c r="P42" s="2" t="inlineStr">
         <is>
-          <t>6,99%</t>
+          <t>5,57%</t>
         </is>
       </c>
       <c r="Q42" s="2" t="inlineStr">
@@ -5127,32 +5127,32 @@
       </c>
       <c r="R42" s="2" t="inlineStr">
         <is>
-          <t>83205</t>
+          <t>141213</t>
         </is>
       </c>
       <c r="S42" s="2" t="inlineStr">
         <is>
-          <t>76107</t>
+          <t>126484</t>
         </is>
       </c>
       <c r="T42" s="2" t="inlineStr">
         <is>
-          <t>91534</t>
+          <t>156660</t>
         </is>
       </c>
       <c r="U42" s="2" t="inlineStr">
         <is>
-          <t>10,9%</t>
+          <t>9,02%</t>
         </is>
       </c>
       <c r="V42" s="2" t="inlineStr">
         <is>
-          <t>9,97%</t>
+          <t>8,08%</t>
         </is>
       </c>
       <c r="W42" s="2" t="inlineStr">
         <is>
-          <t>11,99%</t>
+          <t>10,0%</t>
         </is>
       </c>
     </row>
@@ -5170,17 +5170,17 @@
       </c>
       <c r="D43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="E43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="F43" s="2" t="inlineStr">
         <is>
-          <t>352320</t>
+          <t>746343</t>
         </is>
       </c>
       <c r="G43" s="2" t="inlineStr">
@@ -5205,17 +5205,17 @@
       </c>
       <c r="K43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="L43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="M43" s="2" t="inlineStr">
         <is>
-          <t>411246</t>
+          <t>819818</t>
         </is>
       </c>
       <c r="N43" s="2" t="inlineStr">
@@ -5240,17 +5240,17 @@
       </c>
       <c r="R43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="S43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="T43" s="2" t="inlineStr">
         <is>
-          <t>763566</t>
+          <t>1566161</t>
         </is>
       </c>
       <c r="U43" s="2" t="inlineStr">
@@ -5535,12 +5535,12 @@
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>26477</t>
+          <t>26037</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>67594</t>
+          <t>64499</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
@@ -5550,12 +5550,12 @@
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>11,21%</t>
+          <t>11,02%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>28,61%</t>
+          <t>27,3%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
@@ -5570,12 +5570,12 @@
       </c>
       <c r="L4" s="2" t="inlineStr">
         <is>
-          <t>37603</t>
+          <t>38502</t>
         </is>
       </c>
       <c r="M4" s="2" t="inlineStr">
         <is>
-          <t>70325</t>
+          <t>70715</t>
         </is>
       </c>
       <c r="N4" s="2" t="inlineStr">
@@ -5585,12 +5585,12 @@
       </c>
       <c r="O4" s="2" t="inlineStr">
         <is>
-          <t>20,4%</t>
+          <t>20,89%</t>
         </is>
       </c>
       <c r="P4" s="2" t="inlineStr">
         <is>
-          <t>38,15%</t>
+          <t>38,36%</t>
         </is>
       </c>
       <c r="Q4" s="2" t="inlineStr">
@@ -5605,12 +5605,12 @@
       </c>
       <c r="S4" s="2" t="inlineStr">
         <is>
-          <t>73511</t>
+          <t>73010</t>
         </is>
       </c>
       <c r="T4" s="2" t="inlineStr">
         <is>
-          <t>127855</t>
+          <t>123477</t>
         </is>
       </c>
       <c r="U4" s="2" t="inlineStr">
@@ -5620,12 +5620,12 @@
       </c>
       <c r="V4" s="2" t="inlineStr">
         <is>
-          <t>17,48%</t>
+          <t>17,36%</t>
         </is>
       </c>
       <c r="W4" s="2" t="inlineStr">
         <is>
-          <t>30,4%</t>
+          <t>29,36%</t>
         </is>
       </c>
     </row>
@@ -5648,12 +5648,12 @@
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>104121</t>
+          <t>109612</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>159166</t>
+          <t>158911</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
@@ -5663,12 +5663,12 @@
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>44,07%</t>
+          <t>46,4%</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>67,38%</t>
+          <t>67,27%</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
@@ -5683,12 +5683,12 @@
       </c>
       <c r="L5" s="2" t="inlineStr">
         <is>
-          <t>80059</t>
+          <t>80253</t>
         </is>
       </c>
       <c r="M5" s="2" t="inlineStr">
         <is>
-          <t>116967</t>
+          <t>116203</t>
         </is>
       </c>
       <c r="N5" s="2" t="inlineStr">
@@ -5698,12 +5698,12 @@
       </c>
       <c r="O5" s="2" t="inlineStr">
         <is>
-          <t>43,43%</t>
+          <t>43,53%</t>
         </is>
       </c>
       <c r="P5" s="2" t="inlineStr">
         <is>
-          <t>63,45%</t>
+          <t>63,03%</t>
         </is>
       </c>
       <c r="Q5" s="2" t="inlineStr">
@@ -5718,12 +5718,12 @@
       </c>
       <c r="S5" s="2" t="inlineStr">
         <is>
-          <t>195896</t>
+          <t>197712</t>
         </is>
       </c>
       <c r="T5" s="2" t="inlineStr">
         <is>
-          <t>263212</t>
+          <t>263743</t>
         </is>
       </c>
       <c r="U5" s="2" t="inlineStr">
@@ -5733,12 +5733,12 @@
       </c>
       <c r="V5" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>47,01%</t>
         </is>
       </c>
       <c r="W5" s="2" t="inlineStr">
         <is>
-          <t>62,58%</t>
+          <t>62,71%</t>
         </is>
       </c>
     </row>
@@ -5761,12 +5761,12 @@
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>35282</t>
+          <t>33507</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>77514</t>
+          <t>79820</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
@@ -5776,12 +5776,12 @@
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>14,94%</t>
+          <t>14,18%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>32,81%</t>
+          <t>33,79%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
@@ -5796,12 +5796,12 @@
       </c>
       <c r="L6" s="2" t="inlineStr">
         <is>
-          <t>18456</t>
+          <t>18459</t>
         </is>
       </c>
       <c r="M6" s="2" t="inlineStr">
         <is>
-          <t>46265</t>
+          <t>46165</t>
         </is>
       </c>
       <c r="N6" s="2" t="inlineStr">
@@ -5816,7 +5816,7 @@
       </c>
       <c r="P6" s="2" t="inlineStr">
         <is>
-          <t>25,1%</t>
+          <t>25,04%</t>
         </is>
       </c>
       <c r="Q6" s="2" t="inlineStr">
@@ -5831,12 +5831,12 @@
       </c>
       <c r="S6" s="2" t="inlineStr">
         <is>
-          <t>59068</t>
+          <t>59666</t>
         </is>
       </c>
       <c r="T6" s="2" t="inlineStr">
         <is>
-          <t>113668</t>
+          <t>112992</t>
         </is>
       </c>
       <c r="U6" s="2" t="inlineStr">
@@ -5846,12 +5846,12 @@
       </c>
       <c r="V6" s="2" t="inlineStr">
         <is>
-          <t>14,04%</t>
+          <t>14,19%</t>
         </is>
       </c>
       <c r="W6" s="2" t="inlineStr">
         <is>
-          <t>27,03%</t>
+          <t>26,87%</t>
         </is>
       </c>
     </row>
@@ -5874,12 +5874,12 @@
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>1667</t>
+          <t>1490</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>15725</t>
+          <t>15340</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
@@ -5889,12 +5889,12 @@
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>0,71%</t>
+          <t>0,63%</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>6,66%</t>
+          <t>6,49%</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
@@ -5914,7 +5914,7 @@
       </c>
       <c r="M7" s="2" t="inlineStr">
         <is>
-          <t>14622</t>
+          <t>14530</t>
         </is>
       </c>
       <c r="N7" s="2" t="inlineStr">
@@ -5929,7 +5929,7 @@
       </c>
       <c r="P7" s="2" t="inlineStr">
         <is>
-          <t>7,93%</t>
+          <t>7,88%</t>
         </is>
       </c>
       <c r="Q7" s="2" t="inlineStr">
@@ -5944,12 +5944,12 @@
       </c>
       <c r="S7" s="2" t="inlineStr">
         <is>
-          <t>3120</t>
+          <t>2838</t>
         </is>
       </c>
       <c r="T7" s="2" t="inlineStr">
         <is>
-          <t>19533</t>
+          <t>17963</t>
         </is>
       </c>
       <c r="U7" s="2" t="inlineStr">
@@ -5959,12 +5959,12 @@
       </c>
       <c r="V7" s="2" t="inlineStr">
         <is>
-          <t>0,74%</t>
+          <t>0,67%</t>
         </is>
       </c>
       <c r="W7" s="2" t="inlineStr">
         <is>
-          <t>4,64%</t>
+          <t>4,27%</t>
         </is>
       </c>
     </row>
@@ -6104,12 +6104,12 @@
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>19530</t>
+          <t>19243</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>46423</t>
+          <t>45086</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
@@ -6119,12 +6119,12 @@
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>8,51%</t>
+          <t>8,39%</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>20,24%</t>
+          <t>19,66%</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
@@ -6139,12 +6139,12 @@
       </c>
       <c r="L9" s="2" t="inlineStr">
         <is>
-          <t>25003</t>
+          <t>24924</t>
         </is>
       </c>
       <c r="M9" s="2" t="inlineStr">
         <is>
-          <t>65942</t>
+          <t>68923</t>
         </is>
       </c>
       <c r="N9" s="2" t="inlineStr">
@@ -6154,12 +6154,12 @@
       </c>
       <c r="O9" s="2" t="inlineStr">
         <is>
-          <t>7,95%</t>
+          <t>7,93%</t>
         </is>
       </c>
       <c r="P9" s="2" t="inlineStr">
         <is>
-          <t>20,97%</t>
+          <t>21,92%</t>
         </is>
       </c>
       <c r="Q9" s="2" t="inlineStr">
@@ -6174,12 +6174,12 @@
       </c>
       <c r="S9" s="2" t="inlineStr">
         <is>
-          <t>51196</t>
+          <t>49008</t>
         </is>
       </c>
       <c r="T9" s="2" t="inlineStr">
         <is>
-          <t>101273</t>
+          <t>99303</t>
         </is>
       </c>
       <c r="U9" s="2" t="inlineStr">
@@ -6189,12 +6189,12 @@
       </c>
       <c r="V9" s="2" t="inlineStr">
         <is>
-          <t>9,41%</t>
+          <t>9,01%</t>
         </is>
       </c>
       <c r="W9" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>18,26%</t>
         </is>
       </c>
     </row>
@@ -6217,12 +6217,12 @@
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>81326</t>
+          <t>81550</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>119800</t>
+          <t>121151</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
@@ -6232,12 +6232,12 @@
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>35,46%</t>
+          <t>35,55%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>52,23%</t>
+          <t>52,82%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
@@ -6252,12 +6252,12 @@
       </c>
       <c r="L10" s="2" t="inlineStr">
         <is>
-          <t>183776</t>
+          <t>182508</t>
         </is>
       </c>
       <c r="M10" s="2" t="inlineStr">
         <is>
-          <t>265199</t>
+          <t>264967</t>
         </is>
       </c>
       <c r="N10" s="2" t="inlineStr">
@@ -6267,12 +6267,12 @@
       </c>
       <c r="O10" s="2" t="inlineStr">
         <is>
-          <t>58,45%</t>
+          <t>58,04%</t>
         </is>
       </c>
       <c r="P10" s="2" t="inlineStr">
         <is>
-          <t>84,34%</t>
+          <t>84,27%</t>
         </is>
       </c>
       <c r="Q10" s="2" t="inlineStr">
@@ -6287,12 +6287,12 @@
       </c>
       <c r="S10" s="2" t="inlineStr">
         <is>
-          <t>276599</t>
+          <t>274572</t>
         </is>
       </c>
       <c r="T10" s="2" t="inlineStr">
         <is>
-          <t>399323</t>
+          <t>397695</t>
         </is>
       </c>
       <c r="U10" s="2" t="inlineStr">
@@ -6302,12 +6302,12 @@
       </c>
       <c r="V10" s="2" t="inlineStr">
         <is>
-          <t>50,86%</t>
+          <t>50,49%</t>
         </is>
       </c>
       <c r="W10" s="2" t="inlineStr">
         <is>
-          <t>73,43%</t>
+          <t>73,13%</t>
         </is>
       </c>
     </row>
@@ -6330,12 +6330,12 @@
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>63777</t>
+          <t>60673</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>101269</t>
+          <t>100559</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
@@ -6345,12 +6345,12 @@
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>27,81%</t>
+          <t>26,45%</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>44,15%</t>
+          <t>43,84%</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
@@ -6365,12 +6365,12 @@
       </c>
       <c r="L11" s="2" t="inlineStr">
         <is>
-          <t>21642</t>
+          <t>22689</t>
         </is>
       </c>
       <c r="M11" s="2" t="inlineStr">
         <is>
-          <t>65538</t>
+          <t>66279</t>
         </is>
       </c>
       <c r="N11" s="2" t="inlineStr">
@@ -6380,12 +6380,12 @@
       </c>
       <c r="O11" s="2" t="inlineStr">
         <is>
-          <t>6,88%</t>
+          <t>7,22%</t>
         </is>
       </c>
       <c r="P11" s="2" t="inlineStr">
         <is>
-          <t>20,84%</t>
+          <t>21,08%</t>
         </is>
       </c>
       <c r="Q11" s="2" t="inlineStr">
@@ -6400,12 +6400,12 @@
       </c>
       <c r="S11" s="2" t="inlineStr">
         <is>
-          <t>79661</t>
+          <t>80903</t>
         </is>
       </c>
       <c r="T11" s="2" t="inlineStr">
         <is>
-          <t>156050</t>
+          <t>156967</t>
         </is>
       </c>
       <c r="U11" s="2" t="inlineStr">
@@ -6415,12 +6415,12 @@
       </c>
       <c r="V11" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>14,88%</t>
         </is>
       </c>
       <c r="W11" s="2" t="inlineStr">
         <is>
-          <t>28,7%</t>
+          <t>28,87%</t>
         </is>
       </c>
     </row>
@@ -6443,12 +6443,12 @@
       </c>
       <c r="E12" s="2" t="inlineStr">
         <is>
-          <t>9531</t>
+          <t>9728</t>
         </is>
       </c>
       <c r="F12" s="2" t="inlineStr">
         <is>
-          <t>29200</t>
+          <t>28858</t>
         </is>
       </c>
       <c r="G12" s="2" t="inlineStr">
@@ -6458,12 +6458,12 @@
       </c>
       <c r="H12" s="2" t="inlineStr">
         <is>
-          <t>4,16%</t>
+          <t>4,24%</t>
         </is>
       </c>
       <c r="I12" s="2" t="inlineStr">
         <is>
-          <t>12,73%</t>
+          <t>12,58%</t>
         </is>
       </c>
       <c r="J12" s="2" t="inlineStr">
@@ -6478,12 +6478,12 @@
       </c>
       <c r="L12" s="2" t="inlineStr">
         <is>
-          <t>1234</t>
+          <t>1293</t>
         </is>
       </c>
       <c r="M12" s="2" t="inlineStr">
         <is>
-          <t>9924</t>
+          <t>10873</t>
         </is>
       </c>
       <c r="N12" s="2" t="inlineStr">
@@ -6493,12 +6493,12 @@
       </c>
       <c r="O12" s="2" t="inlineStr">
         <is>
-          <t>0,39%</t>
+          <t>0,41%</t>
         </is>
       </c>
       <c r="P12" s="2" t="inlineStr">
         <is>
-          <t>3,16%</t>
+          <t>3,46%</t>
         </is>
       </c>
       <c r="Q12" s="2" t="inlineStr">
@@ -6513,12 +6513,12 @@
       </c>
       <c r="S12" s="2" t="inlineStr">
         <is>
-          <t>10737</t>
+          <t>11403</t>
         </is>
       </c>
       <c r="T12" s="2" t="inlineStr">
         <is>
-          <t>34330</t>
+          <t>35896</t>
         </is>
       </c>
       <c r="U12" s="2" t="inlineStr">
@@ -6528,12 +6528,12 @@
       </c>
       <c r="V12" s="2" t="inlineStr">
         <is>
-          <t>1,97%</t>
+          <t>2,1%</t>
         </is>
       </c>
       <c r="W12" s="2" t="inlineStr">
         <is>
-          <t>6,31%</t>
+          <t>6,6%</t>
         </is>
       </c>
     </row>
@@ -6673,12 +6673,12 @@
       </c>
       <c r="E14" s="2" t="inlineStr">
         <is>
-          <t>37263</t>
+          <t>38279</t>
         </is>
       </c>
       <c r="F14" s="2" t="inlineStr">
         <is>
-          <t>64824</t>
+          <t>66875</t>
         </is>
       </c>
       <c r="G14" s="2" t="inlineStr">
@@ -6688,12 +6688,12 @@
       </c>
       <c r="H14" s="2" t="inlineStr">
         <is>
-          <t>12,0%</t>
+          <t>12,32%</t>
         </is>
       </c>
       <c r="I14" s="2" t="inlineStr">
         <is>
-          <t>20,87%</t>
+          <t>21,53%</t>
         </is>
       </c>
       <c r="J14" s="2" t="inlineStr">
@@ -6708,12 +6708,12 @@
       </c>
       <c r="L14" s="2" t="inlineStr">
         <is>
-          <t>66094</t>
+          <t>65456</t>
         </is>
       </c>
       <c r="M14" s="2" t="inlineStr">
         <is>
-          <t>91338</t>
+          <t>90089</t>
         </is>
       </c>
       <c r="N14" s="2" t="inlineStr">
@@ -6723,12 +6723,12 @@
       </c>
       <c r="O14" s="2" t="inlineStr">
         <is>
-          <t>20,58%</t>
+          <t>20,38%</t>
         </is>
       </c>
       <c r="P14" s="2" t="inlineStr">
         <is>
-          <t>28,44%</t>
+          <t>28,05%</t>
         </is>
       </c>
       <c r="Q14" s="2" t="inlineStr">
@@ -6743,12 +6743,12 @@
       </c>
       <c r="S14" s="2" t="inlineStr">
         <is>
-          <t>108773</t>
+          <t>109606</t>
         </is>
       </c>
       <c r="T14" s="2" t="inlineStr">
         <is>
-          <t>145778</t>
+          <t>148118</t>
         </is>
       </c>
       <c r="U14" s="2" t="inlineStr">
@@ -6758,12 +6758,12 @@
       </c>
       <c r="V14" s="2" t="inlineStr">
         <is>
-          <t>17,22%</t>
+          <t>17,35%</t>
         </is>
       </c>
       <c r="W14" s="2" t="inlineStr">
         <is>
-          <t>23,07%</t>
+          <t>23,45%</t>
         </is>
       </c>
     </row>
@@ -6786,12 +6786,12 @@
       </c>
       <c r="E15" s="2" t="inlineStr">
         <is>
-          <t>120889</t>
+          <t>118611</t>
         </is>
       </c>
       <c r="F15" s="2" t="inlineStr">
         <is>
-          <t>156205</t>
+          <t>157394</t>
         </is>
       </c>
       <c r="G15" s="2" t="inlineStr">
@@ -6801,12 +6801,12 @@
       </c>
       <c r="H15" s="2" t="inlineStr">
         <is>
-          <t>38,92%</t>
+          <t>38,19%</t>
         </is>
       </c>
       <c r="I15" s="2" t="inlineStr">
         <is>
-          <t>50,29%</t>
+          <t>50,67%</t>
         </is>
       </c>
       <c r="J15" s="2" t="inlineStr">
@@ -6821,12 +6821,12 @@
       </c>
       <c r="L15" s="2" t="inlineStr">
         <is>
-          <t>166178</t>
+          <t>164808</t>
         </is>
       </c>
       <c r="M15" s="2" t="inlineStr">
         <is>
-          <t>193603</t>
+          <t>195051</t>
         </is>
       </c>
       <c r="N15" s="2" t="inlineStr">
@@ -6836,12 +6836,12 @@
       </c>
       <c r="O15" s="2" t="inlineStr">
         <is>
-          <t>51,74%</t>
+          <t>51,32%</t>
         </is>
       </c>
       <c r="P15" s="2" t="inlineStr">
         <is>
-          <t>60,28%</t>
+          <t>60,73%</t>
         </is>
       </c>
       <c r="Q15" s="2" t="inlineStr">
@@ -6856,12 +6856,12 @@
       </c>
       <c r="S15" s="2" t="inlineStr">
         <is>
-          <t>294257</t>
+          <t>293723</t>
         </is>
       </c>
       <c r="T15" s="2" t="inlineStr">
         <is>
-          <t>343356</t>
+          <t>341414</t>
         </is>
       </c>
       <c r="U15" s="2" t="inlineStr">
@@ -6871,12 +6871,12 @@
       </c>
       <c r="V15" s="2" t="inlineStr">
         <is>
-          <t>46,58%</t>
+          <t>46,49%</t>
         </is>
       </c>
       <c r="W15" s="2" t="inlineStr">
         <is>
-          <t>54,35%</t>
+          <t>54,04%</t>
         </is>
       </c>
     </row>
@@ -6899,12 +6899,12 @@
       </c>
       <c r="E16" s="2" t="inlineStr">
         <is>
-          <t>75970</t>
+          <t>76440</t>
         </is>
       </c>
       <c r="F16" s="2" t="inlineStr">
         <is>
-          <t>112264</t>
+          <t>111957</t>
         </is>
       </c>
       <c r="G16" s="2" t="inlineStr">
@@ -6914,12 +6914,12 @@
       </c>
       <c r="H16" s="2" t="inlineStr">
         <is>
-          <t>24,46%</t>
+          <t>24,61%</t>
         </is>
       </c>
       <c r="I16" s="2" t="inlineStr">
         <is>
-          <t>36,14%</t>
+          <t>36,04%</t>
         </is>
       </c>
       <c r="J16" s="2" t="inlineStr">
@@ -6934,12 +6934,12 @@
       </c>
       <c r="L16" s="2" t="inlineStr">
         <is>
-          <t>46617</t>
+          <t>45111</t>
         </is>
       </c>
       <c r="M16" s="2" t="inlineStr">
         <is>
-          <t>69056</t>
+          <t>68951</t>
         </is>
       </c>
       <c r="N16" s="2" t="inlineStr">
@@ -6949,12 +6949,12 @@
       </c>
       <c r="O16" s="2" t="inlineStr">
         <is>
-          <t>14,52%</t>
+          <t>14,05%</t>
         </is>
       </c>
       <c r="P16" s="2" t="inlineStr">
         <is>
-          <t>21,5%</t>
+          <t>21,47%</t>
         </is>
       </c>
       <c r="Q16" s="2" t="inlineStr">
@@ -6969,12 +6969,12 @@
       </c>
       <c r="S16" s="2" t="inlineStr">
         <is>
-          <t>132361</t>
+          <t>130548</t>
         </is>
       </c>
       <c r="T16" s="2" t="inlineStr">
         <is>
-          <t>174365</t>
+          <t>171863</t>
         </is>
       </c>
       <c r="U16" s="2" t="inlineStr">
@@ -6984,12 +6984,12 @@
       </c>
       <c r="V16" s="2" t="inlineStr">
         <is>
-          <t>20,95%</t>
+          <t>20,66%</t>
         </is>
       </c>
       <c r="W16" s="2" t="inlineStr">
         <is>
-          <t>27,6%</t>
+          <t>27,2%</t>
         </is>
       </c>
     </row>
@@ -7012,12 +7012,12 @@
       </c>
       <c r="E17" s="2" t="inlineStr">
         <is>
-          <t>19455</t>
+          <t>18289</t>
         </is>
       </c>
       <c r="F17" s="2" t="inlineStr">
         <is>
-          <t>40999</t>
+          <t>38694</t>
         </is>
       </c>
       <c r="G17" s="2" t="inlineStr">
@@ -7027,12 +7027,12 @@
       </c>
       <c r="H17" s="2" t="inlineStr">
         <is>
-          <t>6,26%</t>
+          <t>5,89%</t>
         </is>
       </c>
       <c r="I17" s="2" t="inlineStr">
         <is>
-          <t>13,2%</t>
+          <t>12,46%</t>
         </is>
       </c>
       <c r="J17" s="2" t="inlineStr">
@@ -7047,12 +7047,12 @@
       </c>
       <c r="L17" s="2" t="inlineStr">
         <is>
-          <t>4079</t>
+          <t>3776</t>
         </is>
       </c>
       <c r="M17" s="2" t="inlineStr">
         <is>
-          <t>14241</t>
+          <t>13216</t>
         </is>
       </c>
       <c r="N17" s="2" t="inlineStr">
@@ -7062,12 +7062,12 @@
       </c>
       <c r="O17" s="2" t="inlineStr">
         <is>
-          <t>1,27%</t>
+          <t>1,18%</t>
         </is>
       </c>
       <c r="P17" s="2" t="inlineStr">
         <is>
-          <t>4,43%</t>
+          <t>4,12%</t>
         </is>
       </c>
       <c r="Q17" s="2" t="inlineStr">
@@ -7082,12 +7082,12 @@
       </c>
       <c r="S17" s="2" t="inlineStr">
         <is>
-          <t>24997</t>
+          <t>25204</t>
         </is>
       </c>
       <c r="T17" s="2" t="inlineStr">
         <is>
-          <t>47206</t>
+          <t>48531</t>
         </is>
       </c>
       <c r="U17" s="2" t="inlineStr">
@@ -7097,12 +7097,12 @@
       </c>
       <c r="V17" s="2" t="inlineStr">
         <is>
-          <t>3,96%</t>
+          <t>3,99%</t>
         </is>
       </c>
       <c r="W17" s="2" t="inlineStr">
         <is>
-          <t>7,47%</t>
+          <t>7,68%</t>
         </is>
       </c>
     </row>
@@ -7242,12 +7242,12 @@
       </c>
       <c r="E19" s="2" t="inlineStr">
         <is>
-          <t>20403</t>
+          <t>20699</t>
         </is>
       </c>
       <c r="F19" s="2" t="inlineStr">
         <is>
-          <t>105368</t>
+          <t>104996</t>
         </is>
       </c>
       <c r="G19" s="2" t="inlineStr">
@@ -7257,12 +7257,12 @@
       </c>
       <c r="H19" s="2" t="inlineStr">
         <is>
-          <t>3,27%</t>
+          <t>3,31%</t>
         </is>
       </c>
       <c r="I19" s="2" t="inlineStr">
         <is>
-          <t>16,87%</t>
+          <t>16,81%</t>
         </is>
       </c>
       <c r="J19" s="2" t="inlineStr">
@@ -7277,12 +7277,12 @@
       </c>
       <c r="L19" s="2" t="inlineStr">
         <is>
-          <t>90188</t>
+          <t>90976</t>
         </is>
       </c>
       <c r="M19" s="2" t="inlineStr">
         <is>
-          <t>117457</t>
+          <t>117037</t>
         </is>
       </c>
       <c r="N19" s="2" t="inlineStr">
@@ -7292,12 +7292,12 @@
       </c>
       <c r="O19" s="2" t="inlineStr">
         <is>
-          <t>22,32%</t>
+          <t>22,51%</t>
         </is>
       </c>
       <c r="P19" s="2" t="inlineStr">
         <is>
-          <t>29,06%</t>
+          <t>28,96%</t>
         </is>
       </c>
       <c r="Q19" s="2" t="inlineStr">
@@ -7312,12 +7312,12 @@
       </c>
       <c r="S19" s="2" t="inlineStr">
         <is>
-          <t>85808</t>
+          <t>75100</t>
         </is>
       </c>
       <c r="T19" s="2" t="inlineStr">
         <is>
-          <t>218889</t>
+          <t>221353</t>
         </is>
       </c>
       <c r="U19" s="2" t="inlineStr">
@@ -7327,12 +7327,12 @@
       </c>
       <c r="V19" s="2" t="inlineStr">
         <is>
-          <t>8,34%</t>
+          <t>7,3%</t>
         </is>
       </c>
       <c r="W19" s="2" t="inlineStr">
         <is>
-          <t>21,27%</t>
+          <t>21,51%</t>
         </is>
       </c>
     </row>
@@ -7355,12 +7355,12 @@
       </c>
       <c r="E20" s="2" t="inlineStr">
         <is>
-          <t>254236</t>
+          <t>253821</t>
         </is>
       </c>
       <c r="F20" s="2" t="inlineStr">
         <is>
-          <t>552754</t>
+          <t>549491</t>
         </is>
       </c>
       <c r="G20" s="2" t="inlineStr">
@@ -7370,12 +7370,12 @@
       </c>
       <c r="H20" s="2" t="inlineStr">
         <is>
-          <t>40,69%</t>
+          <t>40,63%</t>
         </is>
       </c>
       <c r="I20" s="2" t="inlineStr">
         <is>
-          <t>88,47%</t>
+          <t>87,95%</t>
         </is>
       </c>
       <c r="J20" s="2" t="inlineStr">
@@ -7390,12 +7390,12 @@
       </c>
       <c r="L20" s="2" t="inlineStr">
         <is>
-          <t>200559</t>
+          <t>199676</t>
         </is>
       </c>
       <c r="M20" s="2" t="inlineStr">
         <is>
-          <t>232534</t>
+          <t>230604</t>
         </is>
       </c>
       <c r="N20" s="2" t="inlineStr">
@@ -7405,12 +7405,12 @@
       </c>
       <c r="O20" s="2" t="inlineStr">
         <is>
-          <t>49,63%</t>
+          <t>49,41%</t>
         </is>
       </c>
       <c r="P20" s="2" t="inlineStr">
         <is>
-          <t>57,54%</t>
+          <t>57,06%</t>
         </is>
       </c>
       <c r="Q20" s="2" t="inlineStr">
@@ -7425,12 +7425,12 @@
       </c>
       <c r="S20" s="2" t="inlineStr">
         <is>
-          <t>486628</t>
+          <t>487850</t>
         </is>
       </c>
       <c r="T20" s="2" t="inlineStr">
         <is>
-          <t>807664</t>
+          <t>822853</t>
         </is>
       </c>
       <c r="U20" s="2" t="inlineStr">
@@ -7440,12 +7440,12 @@
       </c>
       <c r="V20" s="2" t="inlineStr">
         <is>
-          <t>47,3%</t>
+          <t>47,41%</t>
         </is>
       </c>
       <c r="W20" s="2" t="inlineStr">
         <is>
-          <t>78,5%</t>
+          <t>79,97%</t>
         </is>
       </c>
     </row>
@@ -7468,12 +7468,12 @@
       </c>
       <c r="E21" s="2" t="inlineStr">
         <is>
-          <t>38804</t>
+          <t>40205</t>
         </is>
       </c>
       <c r="F21" s="2" t="inlineStr">
         <is>
-          <t>202491</t>
+          <t>202078</t>
         </is>
       </c>
       <c r="G21" s="2" t="inlineStr">
@@ -7483,12 +7483,12 @@
       </c>
       <c r="H21" s="2" t="inlineStr">
         <is>
-          <t>6,21%</t>
+          <t>6,44%</t>
         </is>
       </c>
       <c r="I21" s="2" t="inlineStr">
         <is>
-          <t>32,41%</t>
+          <t>32,35%</t>
         </is>
       </c>
       <c r="J21" s="2" t="inlineStr">
@@ -7503,12 +7503,12 @@
       </c>
       <c r="L21" s="2" t="inlineStr">
         <is>
-          <t>65391</t>
+          <t>66778</t>
         </is>
       </c>
       <c r="M21" s="2" t="inlineStr">
         <is>
-          <t>89941</t>
+          <t>91858</t>
         </is>
       </c>
       <c r="N21" s="2" t="inlineStr">
@@ -7518,12 +7518,12 @@
       </c>
       <c r="O21" s="2" t="inlineStr">
         <is>
-          <t>16,18%</t>
+          <t>16,52%</t>
         </is>
       </c>
       <c r="P21" s="2" t="inlineStr">
         <is>
-          <t>22,26%</t>
+          <t>22,73%</t>
         </is>
       </c>
       <c r="Q21" s="2" t="inlineStr">
@@ -7538,12 +7538,12 @@
       </c>
       <c r="S21" s="2" t="inlineStr">
         <is>
-          <t>102866</t>
+          <t>100291</t>
         </is>
       </c>
       <c r="T21" s="2" t="inlineStr">
         <is>
-          <t>264871</t>
+          <t>262630</t>
         </is>
       </c>
       <c r="U21" s="2" t="inlineStr">
@@ -7553,12 +7553,12 @@
       </c>
       <c r="V21" s="2" t="inlineStr">
         <is>
-          <t>10,0%</t>
+          <t>9,75%</t>
         </is>
       </c>
       <c r="W21" s="2" t="inlineStr">
         <is>
-          <t>25,74%</t>
+          <t>25,53%</t>
         </is>
       </c>
     </row>
@@ -7581,12 +7581,12 @@
       </c>
       <c r="E22" s="2" t="inlineStr">
         <is>
-          <t>14384</t>
+          <t>14173</t>
         </is>
       </c>
       <c r="F22" s="2" t="inlineStr">
         <is>
-          <t>79315</t>
+          <t>78348</t>
         </is>
       </c>
       <c r="G22" s="2" t="inlineStr">
@@ -7596,12 +7596,12 @@
       </c>
       <c r="H22" s="2" t="inlineStr">
         <is>
-          <t>2,3%</t>
+          <t>2,27%</t>
         </is>
       </c>
       <c r="I22" s="2" t="inlineStr">
         <is>
-          <t>12,7%</t>
+          <t>12,54%</t>
         </is>
       </c>
       <c r="J22" s="2" t="inlineStr">
@@ -7616,12 +7616,12 @@
       </c>
       <c r="L22" s="2" t="inlineStr">
         <is>
-          <t>3684</t>
+          <t>3159</t>
         </is>
       </c>
       <c r="M22" s="2" t="inlineStr">
         <is>
-          <t>11742</t>
+          <t>11294</t>
         </is>
       </c>
       <c r="N22" s="2" t="inlineStr">
@@ -7631,12 +7631,12 @@
       </c>
       <c r="O22" s="2" t="inlineStr">
         <is>
-          <t>0,91%</t>
+          <t>0,78%</t>
         </is>
       </c>
       <c r="P22" s="2" t="inlineStr">
         <is>
-          <t>2,91%</t>
+          <t>2,79%</t>
         </is>
       </c>
       <c r="Q22" s="2" t="inlineStr">
@@ -7651,12 +7651,12 @@
       </c>
       <c r="S22" s="2" t="inlineStr">
         <is>
-          <t>24847</t>
+          <t>23504</t>
         </is>
       </c>
       <c r="T22" s="2" t="inlineStr">
         <is>
-          <t>71146</t>
+          <t>71328</t>
         </is>
       </c>
       <c r="U22" s="2" t="inlineStr">
@@ -7666,12 +7666,12 @@
       </c>
       <c r="V22" s="2" t="inlineStr">
         <is>
-          <t>2,41%</t>
+          <t>2,28%</t>
         </is>
       </c>
       <c r="W22" s="2" t="inlineStr">
         <is>
-          <t>6,91%</t>
+          <t>6,93%</t>
         </is>
       </c>
     </row>
@@ -7811,12 +7811,12 @@
       </c>
       <c r="E24" s="2" t="inlineStr">
         <is>
-          <t>33694</t>
+          <t>34440</t>
         </is>
       </c>
       <c r="F24" s="2" t="inlineStr">
         <is>
-          <t>56962</t>
+          <t>56080</t>
         </is>
       </c>
       <c r="G24" s="2" t="inlineStr">
@@ -7826,12 +7826,12 @@
       </c>
       <c r="H24" s="2" t="inlineStr">
         <is>
-          <t>9,91%</t>
+          <t>10,13%</t>
         </is>
       </c>
       <c r="I24" s="2" t="inlineStr">
         <is>
-          <t>16,75%</t>
+          <t>16,49%</t>
         </is>
       </c>
       <c r="J24" s="2" t="inlineStr">
@@ -7846,12 +7846,12 @@
       </c>
       <c r="L24" s="2" t="inlineStr">
         <is>
-          <t>85857</t>
+          <t>84616</t>
         </is>
       </c>
       <c r="M24" s="2" t="inlineStr">
         <is>
-          <t>109657</t>
+          <t>109960</t>
         </is>
       </c>
       <c r="N24" s="2" t="inlineStr">
@@ -7861,12 +7861,12 @@
       </c>
       <c r="O24" s="2" t="inlineStr">
         <is>
-          <t>26,97%</t>
+          <t>26,58%</t>
         </is>
       </c>
       <c r="P24" s="2" t="inlineStr">
         <is>
-          <t>34,45%</t>
+          <t>34,54%</t>
         </is>
       </c>
       <c r="Q24" s="2" t="inlineStr">
@@ -7881,12 +7881,12 @@
       </c>
       <c r="S24" s="2" t="inlineStr">
         <is>
-          <t>122615</t>
+          <t>123884</t>
         </is>
       </c>
       <c r="T24" s="2" t="inlineStr">
         <is>
-          <t>158242</t>
+          <t>158148</t>
         </is>
       </c>
       <c r="U24" s="2" t="inlineStr">
@@ -7896,12 +7896,12 @@
       </c>
       <c r="V24" s="2" t="inlineStr">
         <is>
-          <t>18,62%</t>
+          <t>18,81%</t>
         </is>
       </c>
       <c r="W24" s="2" t="inlineStr">
         <is>
-          <t>24,03%</t>
+          <t>24,02%</t>
         </is>
       </c>
     </row>
@@ -7924,12 +7924,12 @@
       </c>
       <c r="E25" s="2" t="inlineStr">
         <is>
-          <t>123681</t>
+          <t>120956</t>
         </is>
       </c>
       <c r="F25" s="2" t="inlineStr">
         <is>
-          <t>155766</t>
+          <t>155095</t>
         </is>
       </c>
       <c r="G25" s="2" t="inlineStr">
@@ -7939,12 +7939,12 @@
       </c>
       <c r="H25" s="2" t="inlineStr">
         <is>
-          <t>36,36%</t>
+          <t>35,56%</t>
         </is>
       </c>
       <c r="I25" s="2" t="inlineStr">
         <is>
-          <t>45,8%</t>
+          <t>45,6%</t>
         </is>
       </c>
       <c r="J25" s="2" t="inlineStr">
@@ -7959,12 +7959,12 @@
       </c>
       <c r="L25" s="2" t="inlineStr">
         <is>
-          <t>141858</t>
+          <t>140215</t>
         </is>
       </c>
       <c r="M25" s="2" t="inlineStr">
         <is>
-          <t>169051</t>
+          <t>168221</t>
         </is>
       </c>
       <c r="N25" s="2" t="inlineStr">
@@ -7974,12 +7974,12 @@
       </c>
       <c r="O25" s="2" t="inlineStr">
         <is>
-          <t>44,57%</t>
+          <t>44,05%</t>
         </is>
       </c>
       <c r="P25" s="2" t="inlineStr">
         <is>
-          <t>53,11%</t>
+          <t>52,85%</t>
         </is>
       </c>
       <c r="Q25" s="2" t="inlineStr">
@@ -7994,12 +7994,12 @@
       </c>
       <c r="S25" s="2" t="inlineStr">
         <is>
-          <t>273098</t>
+          <t>273356</t>
         </is>
       </c>
       <c r="T25" s="2" t="inlineStr">
         <is>
-          <t>314923</t>
+          <t>315674</t>
         </is>
       </c>
       <c r="U25" s="2" t="inlineStr">
@@ -8009,12 +8009,12 @@
       </c>
       <c r="V25" s="2" t="inlineStr">
         <is>
-          <t>41,48%</t>
+          <t>41,52%</t>
         </is>
       </c>
       <c r="W25" s="2" t="inlineStr">
         <is>
-          <t>47,83%</t>
+          <t>47,94%</t>
         </is>
       </c>
     </row>
@@ -8037,12 +8037,12 @@
       </c>
       <c r="E26" s="2" t="inlineStr">
         <is>
-          <t>65870</t>
+          <t>64328</t>
         </is>
       </c>
       <c r="F26" s="2" t="inlineStr">
         <is>
-          <t>96115</t>
+          <t>95111</t>
         </is>
       </c>
       <c r="G26" s="2" t="inlineStr">
@@ -8052,12 +8052,12 @@
       </c>
       <c r="H26" s="2" t="inlineStr">
         <is>
-          <t>19,37%</t>
+          <t>18,91%</t>
         </is>
       </c>
       <c r="I26" s="2" t="inlineStr">
         <is>
-          <t>28,26%</t>
+          <t>27,96%</t>
         </is>
       </c>
       <c r="J26" s="2" t="inlineStr">
@@ -8072,12 +8072,12 @@
       </c>
       <c r="L26" s="2" t="inlineStr">
         <is>
-          <t>39325</t>
+          <t>38646</t>
         </is>
       </c>
       <c r="M26" s="2" t="inlineStr">
         <is>
-          <t>57518</t>
+          <t>58976</t>
         </is>
       </c>
       <c r="N26" s="2" t="inlineStr">
@@ -8087,12 +8087,12 @@
       </c>
       <c r="O26" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>12,14%</t>
         </is>
       </c>
       <c r="P26" s="2" t="inlineStr">
         <is>
-          <t>18,07%</t>
+          <t>18,53%</t>
         </is>
       </c>
       <c r="Q26" s="2" t="inlineStr">
@@ -8107,12 +8107,12 @@
       </c>
       <c r="S26" s="2" t="inlineStr">
         <is>
-          <t>109749</t>
+          <t>110624</t>
         </is>
       </c>
       <c r="T26" s="2" t="inlineStr">
         <is>
-          <t>145477</t>
+          <t>145062</t>
         </is>
       </c>
       <c r="U26" s="2" t="inlineStr">
@@ -8122,12 +8122,12 @@
       </c>
       <c r="V26" s="2" t="inlineStr">
         <is>
-          <t>16,67%</t>
+          <t>16,8%</t>
         </is>
       </c>
       <c r="W26" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>22,03%</t>
         </is>
       </c>
     </row>
@@ -8150,12 +8150,12 @@
       </c>
       <c r="E27" s="2" t="inlineStr">
         <is>
-          <t>65079</t>
+          <t>64803</t>
         </is>
       </c>
       <c r="F27" s="2" t="inlineStr">
         <is>
-          <t>93978</t>
+          <t>94584</t>
         </is>
       </c>
       <c r="G27" s="2" t="inlineStr">
@@ -8165,12 +8165,12 @@
       </c>
       <c r="H27" s="2" t="inlineStr">
         <is>
-          <t>19,13%</t>
+          <t>19,05%</t>
         </is>
       </c>
       <c r="I27" s="2" t="inlineStr">
         <is>
-          <t>27,63%</t>
+          <t>27,81%</t>
         </is>
       </c>
       <c r="J27" s="2" t="inlineStr">
@@ -8185,12 +8185,12 @@
       </c>
       <c r="L27" s="2" t="inlineStr">
         <is>
-          <t>12720</t>
+          <t>12183</t>
         </is>
       </c>
       <c r="M27" s="2" t="inlineStr">
         <is>
-          <t>24268</t>
+          <t>24352</t>
         </is>
       </c>
       <c r="N27" s="2" t="inlineStr">
@@ -8200,12 +8200,12 @@
       </c>
       <c r="O27" s="2" t="inlineStr">
         <is>
-          <t>4,0%</t>
+          <t>3,83%</t>
         </is>
       </c>
       <c r="P27" s="2" t="inlineStr">
         <is>
-          <t>7,62%</t>
+          <t>7,65%</t>
         </is>
       </c>
       <c r="Q27" s="2" t="inlineStr">
@@ -8220,12 +8220,12 @@
       </c>
       <c r="S27" s="2" t="inlineStr">
         <is>
-          <t>81316</t>
+          <t>82271</t>
         </is>
       </c>
       <c r="T27" s="2" t="inlineStr">
         <is>
-          <t>112112</t>
+          <t>113860</t>
         </is>
       </c>
       <c r="U27" s="2" t="inlineStr">
@@ -8235,12 +8235,12 @@
       </c>
       <c r="V27" s="2" t="inlineStr">
         <is>
-          <t>12,35%</t>
+          <t>12,49%</t>
         </is>
       </c>
       <c r="W27" s="2" t="inlineStr">
         <is>
-          <t>17,03%</t>
+          <t>17,29%</t>
         </is>
       </c>
     </row>
@@ -8380,12 +8380,12 @@
       </c>
       <c r="E29" s="2" t="inlineStr">
         <is>
-          <t>24023</t>
+          <t>24039</t>
         </is>
       </c>
       <c r="F29" s="2" t="inlineStr">
         <is>
-          <t>40951</t>
+          <t>41726</t>
         </is>
       </c>
       <c r="G29" s="2" t="inlineStr">
@@ -8395,12 +8395,12 @@
       </c>
       <c r="H29" s="2" t="inlineStr">
         <is>
-          <t>11,54%</t>
+          <t>11,55%</t>
         </is>
       </c>
       <c r="I29" s="2" t="inlineStr">
         <is>
-          <t>19,68%</t>
+          <t>20,05%</t>
         </is>
       </c>
       <c r="J29" s="2" t="inlineStr">
@@ -8415,12 +8415,12 @@
       </c>
       <c r="L29" s="2" t="inlineStr">
         <is>
-          <t>34269</t>
+          <t>23126</t>
         </is>
       </c>
       <c r="M29" s="2" t="inlineStr">
         <is>
-          <t>172498</t>
+          <t>171991</t>
         </is>
       </c>
       <c r="N29" s="2" t="inlineStr">
@@ -8430,12 +8430,12 @@
       </c>
       <c r="O29" s="2" t="inlineStr">
         <is>
-          <t>7,57%</t>
+          <t>5,11%</t>
         </is>
       </c>
       <c r="P29" s="2" t="inlineStr">
         <is>
-          <t>38,11%</t>
+          <t>38,0%</t>
         </is>
       </c>
       <c r="Q29" s="2" t="inlineStr">
@@ -8450,12 +8450,12 @@
       </c>
       <c r="S29" s="2" t="inlineStr">
         <is>
-          <t>54975</t>
+          <t>47505</t>
         </is>
       </c>
       <c r="T29" s="2" t="inlineStr">
         <is>
-          <t>183800</t>
+          <t>183170</t>
         </is>
       </c>
       <c r="U29" s="2" t="inlineStr">
@@ -8465,12 +8465,12 @@
       </c>
       <c r="V29" s="2" t="inlineStr">
         <is>
-          <t>8,32%</t>
+          <t>7,19%</t>
         </is>
       </c>
       <c r="W29" s="2" t="inlineStr">
         <is>
-          <t>27,82%</t>
+          <t>27,72%</t>
         </is>
       </c>
     </row>
@@ -8493,12 +8493,12 @@
       </c>
       <c r="E30" s="2" t="inlineStr">
         <is>
-          <t>69539</t>
+          <t>68911</t>
         </is>
       </c>
       <c r="F30" s="2" t="inlineStr">
         <is>
-          <t>91550</t>
+          <t>91726</t>
         </is>
       </c>
       <c r="G30" s="2" t="inlineStr">
@@ -8508,12 +8508,12 @@
       </c>
       <c r="H30" s="2" t="inlineStr">
         <is>
-          <t>33,42%</t>
+          <t>33,12%</t>
         </is>
       </c>
       <c r="I30" s="2" t="inlineStr">
         <is>
-          <t>44,0%</t>
+          <t>44,08%</t>
         </is>
       </c>
       <c r="J30" s="2" t="inlineStr">
@@ -8528,12 +8528,12 @@
       </c>
       <c r="L30" s="2" t="inlineStr">
         <is>
-          <t>36133</t>
+          <t>34055</t>
         </is>
       </c>
       <c r="M30" s="2" t="inlineStr">
         <is>
-          <t>214934</t>
+          <t>214565</t>
         </is>
       </c>
       <c r="N30" s="2" t="inlineStr">
@@ -8543,12 +8543,12 @@
       </c>
       <c r="O30" s="2" t="inlineStr">
         <is>
-          <t>7,98%</t>
+          <t>7,52%</t>
         </is>
       </c>
       <c r="P30" s="2" t="inlineStr">
         <is>
-          <t>47,48%</t>
+          <t>47,4%</t>
         </is>
       </c>
       <c r="Q30" s="2" t="inlineStr">
@@ -8563,12 +8563,12 @@
       </c>
       <c r="S30" s="2" t="inlineStr">
         <is>
-          <t>86211</t>
+          <t>75721</t>
         </is>
       </c>
       <c r="T30" s="2" t="inlineStr">
         <is>
-          <t>288464</t>
+          <t>288793</t>
         </is>
       </c>
       <c r="U30" s="2" t="inlineStr">
@@ -8578,12 +8578,12 @@
       </c>
       <c r="V30" s="2" t="inlineStr">
         <is>
-          <t>13,05%</t>
+          <t>11,46%</t>
         </is>
       </c>
       <c r="W30" s="2" t="inlineStr">
         <is>
-          <t>43,66%</t>
+          <t>43,71%</t>
         </is>
       </c>
     </row>
@@ -8606,12 +8606,12 @@
       </c>
       <c r="E31" s="2" t="inlineStr">
         <is>
-          <t>28329</t>
+          <t>27496</t>
         </is>
       </c>
       <c r="F31" s="2" t="inlineStr">
         <is>
-          <t>45507</t>
+          <t>45746</t>
         </is>
       </c>
       <c r="G31" s="2" t="inlineStr">
@@ -8621,12 +8621,12 @@
       </c>
       <c r="H31" s="2" t="inlineStr">
         <is>
-          <t>13,61%</t>
+          <t>13,21%</t>
         </is>
       </c>
       <c r="I31" s="2" t="inlineStr">
         <is>
-          <t>21,87%</t>
+          <t>21,98%</t>
         </is>
       </c>
       <c r="J31" s="2" t="inlineStr">
@@ -8641,12 +8641,12 @@
       </c>
       <c r="L31" s="2" t="inlineStr">
         <is>
-          <t>44532</t>
+          <t>45139</t>
         </is>
       </c>
       <c r="M31" s="2" t="inlineStr">
         <is>
-          <t>376132</t>
+          <t>390752</t>
         </is>
       </c>
       <c r="N31" s="2" t="inlineStr">
@@ -8656,12 +8656,12 @@
       </c>
       <c r="O31" s="2" t="inlineStr">
         <is>
-          <t>9,84%</t>
+          <t>9,97%</t>
         </is>
       </c>
       <c r="P31" s="2" t="inlineStr">
         <is>
-          <t>83,1%</t>
+          <t>86,33%</t>
         </is>
       </c>
       <c r="Q31" s="2" t="inlineStr">
@@ -8676,12 +8676,12 @@
       </c>
       <c r="S31" s="2" t="inlineStr">
         <is>
-          <t>87731</t>
+          <t>86679</t>
         </is>
       </c>
       <c r="T31" s="2" t="inlineStr">
         <is>
-          <t>484702</t>
+          <t>507291</t>
         </is>
       </c>
       <c r="U31" s="2" t="inlineStr">
@@ -8691,12 +8691,12 @@
       </c>
       <c r="V31" s="2" t="inlineStr">
         <is>
-          <t>13,28%</t>
+          <t>13,12%</t>
         </is>
       </c>
       <c r="W31" s="2" t="inlineStr">
         <is>
-          <t>73,36%</t>
+          <t>76,78%</t>
         </is>
       </c>
     </row>
@@ -8719,12 +8719,12 @@
       </c>
       <c r="E32" s="2" t="inlineStr">
         <is>
-          <t>49897</t>
+          <t>50101</t>
         </is>
       </c>
       <c r="F32" s="2" t="inlineStr">
         <is>
-          <t>71218</t>
+          <t>70505</t>
         </is>
       </c>
       <c r="G32" s="2" t="inlineStr">
@@ -8734,12 +8734,12 @@
       </c>
       <c r="H32" s="2" t="inlineStr">
         <is>
-          <t>23,98%</t>
+          <t>24,08%</t>
         </is>
       </c>
       <c r="I32" s="2" t="inlineStr">
         <is>
-          <t>34,23%</t>
+          <t>33,88%</t>
         </is>
       </c>
       <c r="J32" s="2" t="inlineStr">
@@ -8754,12 +8754,12 @@
       </c>
       <c r="L32" s="2" t="inlineStr">
         <is>
-          <t>5461</t>
+          <t>3894</t>
         </is>
       </c>
       <c r="M32" s="2" t="inlineStr">
         <is>
-          <t>32318</t>
+          <t>32710</t>
         </is>
       </c>
       <c r="N32" s="2" t="inlineStr">
@@ -8769,12 +8769,12 @@
       </c>
       <c r="O32" s="2" t="inlineStr">
         <is>
-          <t>1,21%</t>
+          <t>0,86%</t>
         </is>
       </c>
       <c r="P32" s="2" t="inlineStr">
         <is>
-          <t>7,14%</t>
+          <t>7,23%</t>
         </is>
       </c>
       <c r="Q32" s="2" t="inlineStr">
@@ -8789,12 +8789,12 @@
       </c>
       <c r="S32" s="2" t="inlineStr">
         <is>
-          <t>30899</t>
+          <t>32586</t>
         </is>
       </c>
       <c r="T32" s="2" t="inlineStr">
         <is>
-          <t>116484</t>
+          <t>117228</t>
         </is>
       </c>
       <c r="U32" s="2" t="inlineStr">
@@ -8804,12 +8804,12 @@
       </c>
       <c r="V32" s="2" t="inlineStr">
         <is>
-          <t>4,68%</t>
+          <t>4,93%</t>
         </is>
       </c>
       <c r="W32" s="2" t="inlineStr">
         <is>
-          <t>17,63%</t>
+          <t>17,74%</t>
         </is>
       </c>
     </row>
@@ -8949,12 +8949,12 @@
       </c>
       <c r="E34" s="2" t="inlineStr">
         <is>
-          <t>18296</t>
+          <t>18636</t>
         </is>
       </c>
       <c r="F34" s="2" t="inlineStr">
         <is>
-          <t>33264</t>
+          <t>33847</t>
         </is>
       </c>
       <c r="G34" s="2" t="inlineStr">
@@ -8964,12 +8964,12 @@
       </c>
       <c r="H34" s="2" t="inlineStr">
         <is>
-          <t>12,05%</t>
+          <t>12,28%</t>
         </is>
       </c>
       <c r="I34" s="2" t="inlineStr">
         <is>
-          <t>21,92%</t>
+          <t>22,3%</t>
         </is>
       </c>
       <c r="J34" s="2" t="inlineStr">
@@ -8984,12 +8984,12 @@
       </c>
       <c r="L34" s="2" t="inlineStr">
         <is>
-          <t>102117</t>
+          <t>101776</t>
         </is>
       </c>
       <c r="M34" s="2" t="inlineStr">
         <is>
-          <t>124319</t>
+          <t>123756</t>
         </is>
       </c>
       <c r="N34" s="2" t="inlineStr">
@@ -8999,12 +8999,12 @@
       </c>
       <c r="O34" s="2" t="inlineStr">
         <is>
-          <t>43,88%</t>
+          <t>43,73%</t>
         </is>
       </c>
       <c r="P34" s="2" t="inlineStr">
         <is>
-          <t>53,41%</t>
+          <t>53,17%</t>
         </is>
       </c>
       <c r="Q34" s="2" t="inlineStr">
@@ -9019,12 +9019,12 @@
       </c>
       <c r="S34" s="2" t="inlineStr">
         <is>
-          <t>125685</t>
+          <t>124453</t>
         </is>
       </c>
       <c r="T34" s="2" t="inlineStr">
         <is>
-          <t>154172</t>
+          <t>153087</t>
         </is>
       </c>
       <c r="U34" s="2" t="inlineStr">
@@ -9034,12 +9034,12 @@
       </c>
       <c r="V34" s="2" t="inlineStr">
         <is>
-          <t>32,69%</t>
+          <t>32,37%</t>
         </is>
       </c>
       <c r="W34" s="2" t="inlineStr">
         <is>
-          <t>40,09%</t>
+          <t>39,81%</t>
         </is>
       </c>
     </row>
@@ -9062,12 +9062,12 @@
       </c>
       <c r="E35" s="2" t="inlineStr">
         <is>
-          <t>67948</t>
+          <t>68302</t>
         </is>
       </c>
       <c r="F35" s="2" t="inlineStr">
         <is>
-          <t>87202</t>
+          <t>88322</t>
         </is>
       </c>
       <c r="G35" s="2" t="inlineStr">
@@ -9077,12 +9077,12 @@
       </c>
       <c r="H35" s="2" t="inlineStr">
         <is>
-          <t>44,77%</t>
+          <t>45,0%</t>
         </is>
       </c>
       <c r="I35" s="2" t="inlineStr">
         <is>
-          <t>57,46%</t>
+          <t>58,19%</t>
         </is>
       </c>
       <c r="J35" s="2" t="inlineStr">
@@ -9097,12 +9097,12 @@
       </c>
       <c r="L35" s="2" t="inlineStr">
         <is>
-          <t>95063</t>
+          <t>93884</t>
         </is>
       </c>
       <c r="M35" s="2" t="inlineStr">
         <is>
-          <t>117202</t>
+          <t>116664</t>
         </is>
       </c>
       <c r="N35" s="2" t="inlineStr">
@@ -9112,12 +9112,12 @@
       </c>
       <c r="O35" s="2" t="inlineStr">
         <is>
-          <t>40,84%</t>
+          <t>40,34%</t>
         </is>
       </c>
       <c r="P35" s="2" t="inlineStr">
         <is>
-          <t>50,36%</t>
+          <t>50,13%</t>
         </is>
       </c>
       <c r="Q35" s="2" t="inlineStr">
@@ -9132,12 +9132,12 @@
       </c>
       <c r="S35" s="2" t="inlineStr">
         <is>
-          <t>168036</t>
+          <t>168027</t>
         </is>
       </c>
       <c r="T35" s="2" t="inlineStr">
         <is>
-          <t>197435</t>
+          <t>197123</t>
         </is>
       </c>
       <c r="U35" s="2" t="inlineStr">
@@ -9152,7 +9152,7 @@
       </c>
       <c r="W35" s="2" t="inlineStr">
         <is>
-          <t>51,35%</t>
+          <t>51,27%</t>
         </is>
       </c>
     </row>
@@ -9175,12 +9175,12 @@
       </c>
       <c r="E36" s="2" t="inlineStr">
         <is>
-          <t>7568</t>
+          <t>7452</t>
         </is>
       </c>
       <c r="F36" s="2" t="inlineStr">
         <is>
-          <t>19169</t>
+          <t>19382</t>
         </is>
       </c>
       <c r="G36" s="2" t="inlineStr">
@@ -9190,12 +9190,12 @@
       </c>
       <c r="H36" s="2" t="inlineStr">
         <is>
-          <t>4,99%</t>
+          <t>4,91%</t>
         </is>
       </c>
       <c r="I36" s="2" t="inlineStr">
         <is>
-          <t>12,63%</t>
+          <t>12,77%</t>
         </is>
       </c>
       <c r="J36" s="2" t="inlineStr">
@@ -9210,12 +9210,12 @@
       </c>
       <c r="L36" s="2" t="inlineStr">
         <is>
-          <t>4329</t>
+          <t>4662</t>
         </is>
       </c>
       <c r="M36" s="2" t="inlineStr">
         <is>
-          <t>13194</t>
+          <t>13137</t>
         </is>
       </c>
       <c r="N36" s="2" t="inlineStr">
@@ -9225,12 +9225,12 @@
       </c>
       <c r="O36" s="2" t="inlineStr">
         <is>
-          <t>1,86%</t>
+          <t>2,0%</t>
         </is>
       </c>
       <c r="P36" s="2" t="inlineStr">
         <is>
-          <t>5,67%</t>
+          <t>5,64%</t>
         </is>
       </c>
       <c r="Q36" s="2" t="inlineStr">
@@ -9245,12 +9245,12 @@
       </c>
       <c r="S36" s="2" t="inlineStr">
         <is>
-          <t>13778</t>
+          <t>13867</t>
         </is>
       </c>
       <c r="T36" s="2" t="inlineStr">
         <is>
-          <t>27396</t>
+          <t>27883</t>
         </is>
       </c>
       <c r="U36" s="2" t="inlineStr">
@@ -9260,12 +9260,12 @@
       </c>
       <c r="V36" s="2" t="inlineStr">
         <is>
-          <t>3,58%</t>
+          <t>3,61%</t>
         </is>
       </c>
       <c r="W36" s="2" t="inlineStr">
         <is>
-          <t>7,12%</t>
+          <t>7,25%</t>
         </is>
       </c>
     </row>
@@ -9288,12 +9288,12 @@
       </c>
       <c r="E37" s="2" t="inlineStr">
         <is>
-          <t>27964</t>
+          <t>28658</t>
         </is>
       </c>
       <c r="F37" s="2" t="inlineStr">
         <is>
-          <t>45298</t>
+          <t>46993</t>
         </is>
       </c>
       <c r="G37" s="2" t="inlineStr">
@@ -9303,12 +9303,12 @@
       </c>
       <c r="H37" s="2" t="inlineStr">
         <is>
-          <t>18,42%</t>
+          <t>18,88%</t>
         </is>
       </c>
       <c r="I37" s="2" t="inlineStr">
         <is>
-          <t>29,85%</t>
+          <t>30,96%</t>
         </is>
       </c>
       <c r="J37" s="2" t="inlineStr">
@@ -9323,12 +9323,12 @@
       </c>
       <c r="L37" s="2" t="inlineStr">
         <is>
-          <t>3219</t>
+          <t>3212</t>
         </is>
       </c>
       <c r="M37" s="2" t="inlineStr">
         <is>
-          <t>11636</t>
+          <t>11645</t>
         </is>
       </c>
       <c r="N37" s="2" t="inlineStr">
@@ -9358,12 +9358,12 @@
       </c>
       <c r="S37" s="2" t="inlineStr">
         <is>
-          <t>33438</t>
+          <t>32818</t>
         </is>
       </c>
       <c r="T37" s="2" t="inlineStr">
         <is>
-          <t>52914</t>
+          <t>52827</t>
         </is>
       </c>
       <c r="U37" s="2" t="inlineStr">
@@ -9373,12 +9373,12 @@
       </c>
       <c r="V37" s="2" t="inlineStr">
         <is>
-          <t>8,7%</t>
+          <t>8,53%</t>
         </is>
       </c>
       <c r="W37" s="2" t="inlineStr">
         <is>
-          <t>13,76%</t>
+          <t>13,74%</t>
         </is>
       </c>
     </row>
@@ -9518,12 +9518,12 @@
       </c>
       <c r="E39" s="2" t="inlineStr">
         <is>
-          <t>197888</t>
+          <t>192680</t>
         </is>
       </c>
       <c r="F39" s="2" t="inlineStr">
         <is>
-          <t>342197</t>
+          <t>340163</t>
         </is>
       </c>
       <c r="G39" s="2" t="inlineStr">
@@ -9533,12 +9533,12 @@
       </c>
       <c r="H39" s="2" t="inlineStr">
         <is>
-          <t>9,42%</t>
+          <t>9,17%</t>
         </is>
       </c>
       <c r="I39" s="2" t="inlineStr">
         <is>
-          <t>16,29%</t>
+          <t>16,19%</t>
         </is>
       </c>
       <c r="J39" s="2" t="inlineStr">
@@ -9553,12 +9553,12 @@
       </c>
       <c r="L39" s="2" t="inlineStr">
         <is>
-          <t>412428</t>
+          <t>411936</t>
         </is>
       </c>
       <c r="M39" s="2" t="inlineStr">
         <is>
-          <t>659208</t>
+          <t>660592</t>
         </is>
       </c>
       <c r="N39" s="2" t="inlineStr">
@@ -9568,12 +9568,12 @@
       </c>
       <c r="O39" s="2" t="inlineStr">
         <is>
-          <t>18,51%</t>
+          <t>18,49%</t>
         </is>
       </c>
       <c r="P39" s="2" t="inlineStr">
         <is>
-          <t>29,59%</t>
+          <t>29,65%</t>
         </is>
       </c>
       <c r="Q39" s="2" t="inlineStr">
@@ -9588,12 +9588,12 @@
       </c>
       <c r="S39" s="2" t="inlineStr">
         <is>
-          <t>687628</t>
+          <t>677383</t>
         </is>
       </c>
       <c r="T39" s="2" t="inlineStr">
         <is>
-          <t>974335</t>
+          <t>973801</t>
         </is>
       </c>
       <c r="U39" s="2" t="inlineStr">
@@ -9603,12 +9603,12 @@
       </c>
       <c r="V39" s="2" t="inlineStr">
         <is>
-          <t>15,89%</t>
+          <t>15,65%</t>
         </is>
       </c>
       <c r="W39" s="2" t="inlineStr">
         <is>
-          <t>22,51%</t>
+          <t>22,5%</t>
         </is>
       </c>
     </row>
@@ -9631,12 +9631,12 @@
       </c>
       <c r="E40" s="2" t="inlineStr">
         <is>
-          <t>918686</t>
+          <t>923732</t>
         </is>
       </c>
       <c r="F40" s="2" t="inlineStr">
         <is>
-          <t>1412120</t>
+          <t>1430473</t>
         </is>
       </c>
       <c r="G40" s="2" t="inlineStr">
@@ -9646,12 +9646,12 @@
       </c>
       <c r="H40" s="2" t="inlineStr">
         <is>
-          <t>43,73%</t>
+          <t>43,97%</t>
         </is>
       </c>
       <c r="I40" s="2" t="inlineStr">
         <is>
-          <t>67,21%</t>
+          <t>68,09%</t>
         </is>
       </c>
       <c r="J40" s="2" t="inlineStr">
@@ -9666,12 +9666,12 @@
       </c>
       <c r="L40" s="2" t="inlineStr">
         <is>
-          <t>788360</t>
+          <t>806677</t>
         </is>
       </c>
       <c r="M40" s="2" t="inlineStr">
         <is>
-          <t>1232378</t>
+          <t>1231502</t>
         </is>
       </c>
       <c r="N40" s="2" t="inlineStr">
@@ -9681,12 +9681,12 @@
       </c>
       <c r="O40" s="2" t="inlineStr">
         <is>
-          <t>35,39%</t>
+          <t>36,21%</t>
         </is>
       </c>
       <c r="P40" s="2" t="inlineStr">
         <is>
-          <t>55,32%</t>
+          <t>55,28%</t>
         </is>
       </c>
       <c r="Q40" s="2" t="inlineStr">
@@ -9701,12 +9701,12 @@
       </c>
       <c r="S40" s="2" t="inlineStr">
         <is>
-          <t>1888401</t>
+          <t>1855547</t>
         </is>
       </c>
       <c r="T40" s="2" t="inlineStr">
         <is>
-          <t>2540078</t>
+          <t>2488820</t>
         </is>
       </c>
       <c r="U40" s="2" t="inlineStr">
@@ -9716,12 +9716,12 @@
       </c>
       <c r="V40" s="2" t="inlineStr">
         <is>
-          <t>43,62%</t>
+          <t>42,87%</t>
         </is>
       </c>
       <c r="W40" s="2" t="inlineStr">
         <is>
-          <t>58,68%</t>
+          <t>57,5%</t>
         </is>
       </c>
     </row>
@@ -9744,12 +9744,12 @@
       </c>
       <c r="E41" s="2" t="inlineStr">
         <is>
-          <t>307858</t>
+          <t>302710</t>
         </is>
       </c>
       <c r="F41" s="2" t="inlineStr">
         <is>
-          <t>550694</t>
+          <t>546805</t>
         </is>
       </c>
       <c r="G41" s="2" t="inlineStr">
@@ -9759,12 +9759,12 @@
       </c>
       <c r="H41" s="2" t="inlineStr">
         <is>
-          <t>14,65%</t>
+          <t>14,41%</t>
         </is>
       </c>
       <c r="I41" s="2" t="inlineStr">
         <is>
-          <t>26,21%</t>
+          <t>26,03%</t>
         </is>
       </c>
       <c r="J41" s="2" t="inlineStr">
@@ -9779,12 +9779,12 @@
       </c>
       <c r="L41" s="2" t="inlineStr">
         <is>
-          <t>309620</t>
+          <t>313993</t>
         </is>
       </c>
       <c r="M41" s="2" t="inlineStr">
         <is>
-          <t>983775</t>
+          <t>1001080</t>
         </is>
       </c>
       <c r="N41" s="2" t="inlineStr">
@@ -9794,12 +9794,12 @@
       </c>
       <c r="O41" s="2" t="inlineStr">
         <is>
-          <t>13,9%</t>
+          <t>14,09%</t>
         </is>
       </c>
       <c r="P41" s="2" t="inlineStr">
         <is>
-          <t>44,16%</t>
+          <t>44,94%</t>
         </is>
       </c>
       <c r="Q41" s="2" t="inlineStr">
@@ -9814,12 +9814,12 @@
       </c>
       <c r="S41" s="2" t="inlineStr">
         <is>
-          <t>761656</t>
+          <t>769018</t>
         </is>
       </c>
       <c r="T41" s="2" t="inlineStr">
         <is>
-          <t>1487175</t>
+          <t>1620669</t>
         </is>
       </c>
       <c r="U41" s="2" t="inlineStr">
@@ -9829,12 +9829,12 @@
       </c>
       <c r="V41" s="2" t="inlineStr">
         <is>
-          <t>17,6%</t>
+          <t>17,77%</t>
         </is>
       </c>
       <c r="W41" s="2" t="inlineStr">
         <is>
-          <t>34,36%</t>
+          <t>37,44%</t>
         </is>
       </c>
     </row>
@@ -9857,12 +9857,12 @@
       </c>
       <c r="E42" s="2" t="inlineStr">
         <is>
-          <t>181846</t>
+          <t>176305</t>
         </is>
       </c>
       <c r="F42" s="2" t="inlineStr">
         <is>
-          <t>318391</t>
+          <t>313842</t>
         </is>
       </c>
       <c r="G42" s="2" t="inlineStr">
@@ -9872,82 +9872,82 @@
       </c>
       <c r="H42" s="2" t="inlineStr">
         <is>
+          <t>8,39%</t>
+        </is>
+      </c>
+      <c r="I42" s="2" t="inlineStr">
+        <is>
+          <t>14,94%</t>
+        </is>
+      </c>
+      <c r="J42" s="2" t="inlineStr">
+        <is>
+          <t>107</t>
+        </is>
+      </c>
+      <c r="K42" s="2" t="inlineStr">
+        <is>
+          <t>62202</t>
+        </is>
+      </c>
+      <c r="L42" s="2" t="inlineStr">
+        <is>
+          <t>44337</t>
+        </is>
+      </c>
+      <c r="M42" s="2" t="inlineStr">
+        <is>
+          <t>78300</t>
+        </is>
+      </c>
+      <c r="N42" s="2" t="inlineStr">
+        <is>
+          <t>2,79%</t>
+        </is>
+      </c>
+      <c r="O42" s="2" t="inlineStr">
+        <is>
+          <t>1,99%</t>
+        </is>
+      </c>
+      <c r="P42" s="2" t="inlineStr">
+        <is>
+          <t>3,51%</t>
+        </is>
+      </c>
+      <c r="Q42" s="2" t="inlineStr">
+        <is>
+          <t>440</t>
+        </is>
+      </c>
+      <c r="R42" s="2" t="inlineStr">
+        <is>
+          <t>330769</t>
+        </is>
+      </c>
+      <c r="S42" s="2" t="inlineStr">
+        <is>
+          <t>261054</t>
+        </is>
+      </c>
+      <c r="T42" s="2" t="inlineStr">
+        <is>
+          <t>375070</t>
+        </is>
+      </c>
+      <c r="U42" s="2" t="inlineStr">
+        <is>
+          <t>7,64%</t>
+        </is>
+      </c>
+      <c r="V42" s="2" t="inlineStr">
+        <is>
+          <t>6,03%</t>
+        </is>
+      </c>
+      <c r="W42" s="2" t="inlineStr">
+        <is>
           <t>8,66%</t>
-        </is>
-      </c>
-      <c r="I42" s="2" t="inlineStr">
-        <is>
-          <t>15,15%</t>
-        </is>
-      </c>
-      <c r="J42" s="2" t="inlineStr">
-        <is>
-          <t>107</t>
-        </is>
-      </c>
-      <c r="K42" s="2" t="inlineStr">
-        <is>
-          <t>62202</t>
-        </is>
-      </c>
-      <c r="L42" s="2" t="inlineStr">
-        <is>
-          <t>43698</t>
-        </is>
-      </c>
-      <c r="M42" s="2" t="inlineStr">
-        <is>
-          <t>77499</t>
-        </is>
-      </c>
-      <c r="N42" s="2" t="inlineStr">
-        <is>
-          <t>2,79%</t>
-        </is>
-      </c>
-      <c r="O42" s="2" t="inlineStr">
-        <is>
-          <t>1,96%</t>
-        </is>
-      </c>
-      <c r="P42" s="2" t="inlineStr">
-        <is>
-          <t>3,48%</t>
-        </is>
-      </c>
-      <c r="Q42" s="2" t="inlineStr">
-        <is>
-          <t>440</t>
-        </is>
-      </c>
-      <c r="R42" s="2" t="inlineStr">
-        <is>
-          <t>330769</t>
-        </is>
-      </c>
-      <c r="S42" s="2" t="inlineStr">
-        <is>
-          <t>263983</t>
-        </is>
-      </c>
-      <c r="T42" s="2" t="inlineStr">
-        <is>
-          <t>384397</t>
-        </is>
-      </c>
-      <c r="U42" s="2" t="inlineStr">
-        <is>
-          <t>7,64%</t>
-        </is>
-      </c>
-      <c r="V42" s="2" t="inlineStr">
-        <is>
-          <t>6,1%</t>
-        </is>
-      </c>
-      <c r="W42" s="2" t="inlineStr">
-        <is>
-          <t>8,88%</t>
         </is>
       </c>
     </row>
